--- a/USASwimming/Times For Hunter Keane.xlsx
+++ b/USASwimming/Times For Hunter Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="117">
   <si>
     <t>Event</t>
   </si>
@@ -60,15 +60,21 @@
     <t>"BB"</t>
   </si>
   <si>
+    <t>2019 CT RYWC Candlewood Cup</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
     <t>2019 CT Regional Championships CDOG</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>3/2/2019</t>
   </si>
   <si>
@@ -157,6 +163,15 @@
   </si>
   <si>
     <t>100 FR</t>
+  </si>
+  <si>
+    <t>2019 CT Cheshire Y Sea Dog IMX</t>
+  </si>
+  <si>
+    <t>10/20/2019</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
   </si>
   <si>
     <t>3/3/2019</t>
@@ -718,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -777,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.50036597222222</v>
+        <v>33.500363541666665</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.500365972221</v>
+        <v>36557.500363541665</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>641</v>
+        <v>541</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -809,16 +824,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>33.500381365740743</v>
+        <v>33.50036597222222</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.500381365739</v>
+        <v>36557.500365972221</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -841,16 +856,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500391550925926</v>
+        <v>33.500381365740743</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500391550922</v>
+        <v>36557.500381365739</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -873,31 +888,31 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500400694444444</v>
+        <v>33.500391550925926</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500400694444</v>
+        <v>36557.500391550922</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,19 +920,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500406828703703</v>
+        <v>33.500400694444444</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500406828702</v>
+        <v>36557.500400694444</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -937,19 +952,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500413657407407</v>
+        <v>33.500406828703703</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500413657406</v>
+        <v>36557.500406828702</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -969,31 +984,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500444328703701</v>
+        <v>33.500413657407407</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500444328703</v>
+        <v>36557.500413657406</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>287</v>
+        <v>418</v>
       </c>
       <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,19 +1016,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500447453703707</v>
+        <v>33.500444328703701</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500447453705</v>
+        <v>36557.500444328703</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -1033,19 +1048,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500448611111111</v>
+        <v>33.500447453703707</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500448611114</v>
+        <v>36557.500447453705</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1065,19 +1080,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500485300925924</v>
+        <v>33.500448611111111</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500485300923</v>
+        <v>36557.500448611114</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
@@ -1097,19 +1112,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500492476851853</v>
+        <v>33.500485300925924</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.500492476851</v>
+        <v>36557.500485300923</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1129,19 +1144,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500517708333334</v>
+        <v>33.500492476851853</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500517708337</v>
+        <v>36557.500492476851</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1161,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>33.500517939814813</v>
+        <v>33.500517708333334</v>
       </c>
       <c r="C14" s="2">
-        <v>36557.500517939814</v>
+        <v>36557.500517708337</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1173,7 +1188,7 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>40</v>
@@ -1193,19 +1208,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500530092592591</v>
+        <v>33.500517939814813</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.500530092591</v>
+        <v>36557.500517939814</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>42</v>
@@ -1222,25 +1237,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>33.500530092592591</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36557.500530092591</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="3">
-        <v>33.50088090277778</v>
-      </c>
-      <c r="C16" s="3">
-        <v>33.50088090277778</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>446</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1254,25 +1269,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3">
-        <v>33.500996759259259</v>
+        <v>33.500843402777775</v>
       </c>
       <c r="C17" s="3">
-        <v>33.500996759259259</v>
+        <v>33.500843402777775</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1281,30 +1296,30 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3">
-        <v>33.501010532407406</v>
+        <v>33.500845370370371</v>
       </c>
       <c r="C18" s="3">
-        <v>33.501010532407406</v>
+        <v>33.500845370370371</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>190</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1313,30 +1328,30 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3">
-        <v>33.501020601851849</v>
+        <v>33.50088090277778</v>
       </c>
       <c r="C19" s="3">
-        <v>33.501020601851849</v>
+        <v>33.50088090277778</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>174</v>
+        <v>446</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1345,30 +1360,30 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3">
-        <v>33.501068981481481</v>
+        <v>33.500996759259259</v>
       </c>
       <c r="C20" s="3">
-        <v>33.501068981481481</v>
+        <v>33.500996759259259</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1377,31 +1392,31 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3">
-        <v>33.501085185185183</v>
+        <v>33.501010532407406</v>
       </c>
       <c r="C21" s="3">
-        <v>33.501085185185183</v>
+        <v>33.501010532407406</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
@@ -1409,30 +1424,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3">
-        <v>33.501126388888892</v>
+        <v>33.501020601851849</v>
       </c>
       <c r="C22" s="3">
-        <v>33.501126388888892</v>
+        <v>33.501020601851849</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1441,30 +1456,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3">
-        <v>33.50115520833333</v>
+        <v>33.501068981481481</v>
       </c>
       <c r="C23" s="3">
-        <v>33.50115520833333</v>
+        <v>33.501068981481481</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1473,30 +1488,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3">
-        <v>33.502210416666664</v>
+        <v>33.501085185185183</v>
       </c>
       <c r="C24" s="3">
-        <v>33.502210416666664</v>
+        <v>33.501085185185183</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1505,30 +1520,30 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
-        <v>33.502282870370372</v>
+        <v>33.501126388888892</v>
       </c>
       <c r="C25" s="3">
-        <v>33.502282870370372</v>
+        <v>33.501126388888892</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1537,30 +1552,30 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="2">
-        <v>33.500432407407409</v>
-      </c>
-      <c r="C26" s="2">
-        <v>36557.500432407411</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="3">
+        <v>33.50115520833333</v>
+      </c>
+      <c r="C26" s="3">
+        <v>33.50115520833333</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>607</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1569,30 +1584,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2">
-        <v>33.500436574074072</v>
-      </c>
-      <c r="C27" s="2">
-        <v>36557.500436574075</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="3">
+        <v>33.502048842592593</v>
+      </c>
+      <c r="C27" s="3">
+        <v>33.502048842592593</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>588</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1601,30 +1616,30 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2">
-        <v>33.500449305555556</v>
-      </c>
-      <c r="C28" s="2">
-        <v>36557.500449305553</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="3">
+        <v>33.502210416666664</v>
+      </c>
+      <c r="C28" s="3">
+        <v>33.502210416666664</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>531</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1633,30 +1648,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="2">
-        <v>33.500450810185185</v>
-      </c>
-      <c r="C29" s="2">
-        <v>36557.500450810185</v>
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>33.502282870370372</v>
+      </c>
+      <c r="C29" s="3">
+        <v>33.502282870370372</v>
       </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29">
-        <v>524</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1665,30 +1680,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2">
-        <v>33.500462731481484</v>
+        <v>33.500432407407409</v>
       </c>
       <c r="C30" s="2">
-        <v>36557.500462731485</v>
+        <v>36557.500432407411</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>473</v>
+        <v>607</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1697,30 +1712,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2">
-        <v>33.500463310185182</v>
+        <v>33.500436574074072</v>
       </c>
       <c r="C31" s="2">
-        <v>36557.500463310185</v>
+        <v>36557.500436574075</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>470</v>
+        <v>588</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1729,30 +1744,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2">
-        <v>33.500467592592592</v>
+        <v>33.500449305555556</v>
       </c>
       <c r="C32" s="2">
-        <v>36557.500467592596</v>
+        <v>36557.500449305553</v>
       </c>
       <c r="D32">
         <v>9</v>
       </c>
       <c r="E32">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1761,31 +1776,31 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2">
-        <v>33.50050648148148</v>
+        <v>33.500450810185185</v>
       </c>
       <c r="C33" s="2">
-        <v>36557.500506481483</v>
+        <v>36557.500450810185</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>299</v>
+        <v>524</v>
       </c>
       <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
@@ -1793,30 +1808,30 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2">
-        <v>33.500524768518517</v>
+        <v>33.500462731481484</v>
       </c>
       <c r="C34" s="2">
-        <v>36557.500524768519</v>
+        <v>36557.500462731485</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>235</v>
+        <v>473</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1825,30 +1840,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2">
-        <v>33.500525347222222</v>
+        <v>33.500463310185182</v>
       </c>
       <c r="C35" s="2">
-        <v>36557.500525347219</v>
+        <v>36557.500463310185</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>233</v>
+        <v>470</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1857,30 +1872,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2">
-        <v>33.500526273148147</v>
+        <v>33.500467592592592</v>
       </c>
       <c r="C36" s="2">
-        <v>36557.50052627315</v>
+        <v>36557.500467592596</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>229</v>
+        <v>452</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1889,30 +1904,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <v>33.50050648148148</v>
       </c>
       <c r="C37" s="2">
-        <v>36557.500528935183</v>
+        <v>36557.500506481483</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1921,30 +1936,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2">
-        <v>33.500542013888889</v>
+        <v>33.500524768518517</v>
       </c>
       <c r="C38" s="2">
-        <v>36557.500542013891</v>
+        <v>36557.500524768519</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1953,62 +1968,62 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2">
+        <v>33.500525347222222</v>
+      </c>
+      <c r="C39" s="2">
+        <v>36557.500525347219</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="2">
-        <v>33.50056990740741</v>
-      </c>
-      <c r="C39" s="2">
-        <v>36557.50056990741</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
-        <v>33.50059537037037</v>
+        <v>33.500526273148147</v>
       </c>
       <c r="C40" s="2">
-        <v>36557.500595370373</v>
+        <v>36557.50052627315</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2017,30 +2032,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3">
-        <v>33.500926967592591</v>
-      </c>
-      <c r="C41" s="3">
-        <v>33.500926967592591</v>
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2">
+        <v>36557.500528935183</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>613</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2049,30 +2064,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="3">
-        <v>33.500952893518516</v>
-      </c>
-      <c r="C42" s="3">
-        <v>33.500952893518516</v>
+        <v>59</v>
+      </c>
+      <c r="B42" s="2">
+        <v>33.500542013888889</v>
+      </c>
+      <c r="C42" s="2">
+        <v>36557.500542013891</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>558</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2081,62 +2096,62 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="3">
-        <v>33.500985416666666</v>
-      </c>
-      <c r="C43" s="3">
-        <v>33.500985416666666</v>
+        <v>59</v>
+      </c>
+      <c r="B43" s="2">
+        <v>33.50056990740741</v>
+      </c>
+      <c r="C43" s="2">
+        <v>36557.50056990741</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>491</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
         <v>56</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="3">
-        <v>33.500987152777775</v>
-      </c>
-      <c r="C44" s="3">
-        <v>33.500987152777775</v>
+        <v>59</v>
+      </c>
+      <c r="B44" s="2">
+        <v>33.50059537037037</v>
+      </c>
+      <c r="C44" s="2">
+        <v>36557.500595370373</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>488</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2145,30 +2160,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3">
-        <v>33.501002893518518</v>
+        <v>33.500926967592591</v>
       </c>
       <c r="C45" s="3">
-        <v>33.501002893518518</v>
+        <v>33.500926967592591</v>
       </c>
       <c r="D45">
         <v>9</v>
       </c>
       <c r="E45">
-        <v>456</v>
+        <v>613</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2177,30 +2192,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B46" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500952893518516</v>
       </c>
       <c r="C46" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500952893518516</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2209,30 +2224,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3">
-        <v>33.501120023148147</v>
+        <v>33.500970138888889</v>
       </c>
       <c r="C47" s="3">
-        <v>33.501120023148147</v>
+        <v>33.500970138888889</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2241,30 +2256,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B48" s="3">
-        <v>33.501287268518517</v>
+        <v>33.500985416666666</v>
       </c>
       <c r="C48" s="3">
-        <v>33.501287268518517</v>
+        <v>33.500985416666666</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>36</v>
+        <v>491</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2273,30 +2288,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="2">
-        <v>33.500535648148151</v>
-      </c>
-      <c r="C49" s="2">
-        <v>36557.500535648149</v>
+        <v>71</v>
+      </c>
+      <c r="B49" s="3">
+        <v>33.500987152777775</v>
+      </c>
+      <c r="C49" s="3">
+        <v>33.500987152777775</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
       <c r="E49">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2305,30 +2320,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2">
-        <v>33.50054039351852</v>
-      </c>
-      <c r="C50" s="2">
-        <v>36557.500540393521</v>
+        <v>71</v>
+      </c>
+      <c r="B50" s="3">
+        <v>33.501002893518518</v>
+      </c>
+      <c r="C50" s="3">
+        <v>33.501002893518518</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2337,30 +2352,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="2">
-        <v>33.500540624999999</v>
-      </c>
-      <c r="C51" s="2">
-        <v>36557.500540624998</v>
+        <v>71</v>
+      </c>
+      <c r="B51" s="3">
+        <v>33.501091319444441</v>
+      </c>
+      <c r="C51" s="3">
+        <v>33.501091319444441</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2369,30 +2384,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="2">
-        <v>33.500549537037038</v>
-      </c>
-      <c r="C52" s="2">
-        <v>36557.500549537035</v>
+        <v>71</v>
+      </c>
+      <c r="B52" s="3">
+        <v>33.501120023148147</v>
+      </c>
+      <c r="C52" s="3">
+        <v>33.501120023148147</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2401,30 +2416,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="2">
-        <v>33.500566203703706</v>
-      </c>
-      <c r="C53" s="2">
-        <v>36557.5005662037</v>
+        <v>71</v>
+      </c>
+      <c r="B53" s="3">
+        <v>33.501287268518517</v>
+      </c>
+      <c r="C53" s="3">
+        <v>33.501287268518517</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2433,30 +2448,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2">
-        <v>33.500575115740737</v>
+        <v>33.500535648148151</v>
       </c>
       <c r="C54" s="2">
-        <v>36557.500575115744</v>
+        <v>36557.500535648149</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
       <c r="E54">
-        <v>284</v>
+        <v>418</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2465,30 +2480,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2">
-        <v>33.500616666666666</v>
+        <v>33.50054039351852</v>
       </c>
       <c r="C55" s="2">
-        <v>36557.500616666664</v>
+        <v>36557.500540393521</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>162</v>
+        <v>401</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2497,30 +2512,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2">
-        <v>33.500629398148149</v>
+        <v>33.500540624999999</v>
       </c>
       <c r="C56" s="2">
-        <v>36557.50062939815</v>
+        <v>36557.500540624998</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>129</v>
+        <v>400</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2529,30 +2544,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2">
-        <v>33.500659143518519</v>
+        <v>33.500549537037038</v>
       </c>
       <c r="C57" s="2">
-        <v>36557.500659143516</v>
+        <v>36557.500549537035</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <v>62</v>
+        <v>369</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2561,30 +2576,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="3">
-        <v>33.501156250000001</v>
-      </c>
-      <c r="C58" s="3">
-        <v>33.501156250000001</v>
+        <v>73</v>
+      </c>
+      <c r="B58" s="2">
+        <v>33.500566203703706</v>
+      </c>
+      <c r="C58" s="2">
+        <v>36557.5005662037</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
       <c r="E58">
-        <v>455</v>
+        <v>313</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2593,30 +2608,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="3">
-        <v>33.501187847222219</v>
-      </c>
-      <c r="C59" s="3">
-        <v>33.501187847222219</v>
+        <v>73</v>
+      </c>
+      <c r="B59" s="2">
+        <v>33.500575115740737</v>
+      </c>
+      <c r="C59" s="2">
+        <v>36557.500575115744</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2625,30 +2640,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="3">
-        <v>33.501195601851855</v>
-      </c>
-      <c r="C60" s="3">
-        <v>33.501195601851855</v>
+        <v>73</v>
+      </c>
+      <c r="B60" s="2">
+        <v>33.500616666666666</v>
+      </c>
+      <c r="C60" s="2">
+        <v>36557.500616666664</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2657,30 +2672,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="3">
-        <v>33.501196990740738</v>
-      </c>
-      <c r="C61" s="3">
-        <v>33.501196990740738</v>
+        <v>73</v>
+      </c>
+      <c r="B61" s="2">
+        <v>33.500629398148149</v>
+      </c>
+      <c r="C61" s="2">
+        <v>36557.50062939815</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>389</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2689,30 +2704,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="3">
-        <v>33.5012099537037</v>
-      </c>
-      <c r="C62" s="3">
-        <v>33.5012099537037</v>
+        <v>73</v>
+      </c>
+      <c r="B62" s="2">
+        <v>33.500659143518519</v>
+      </c>
+      <c r="C62" s="2">
+        <v>36557.500659143516</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>369</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2721,27 +2736,27 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="2">
-        <v>33.500487615740738</v>
-      </c>
-      <c r="C63" s="2">
-        <v>36557.50048761574</v>
+        <v>74</v>
+      </c>
+      <c r="B63" s="3">
+        <v>33.501117245370374</v>
+      </c>
+      <c r="C63" s="3">
+        <v>33.501117245370374</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -2753,31 +2768,31 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="2">
-        <v>33.500490393518518</v>
-      </c>
-      <c r="C64" s="2">
-        <v>36557.500490393519</v>
+        <v>74</v>
+      </c>
+      <c r="B64" s="3">
+        <v>33.501156250000001</v>
+      </c>
+      <c r="C64" s="3">
+        <v>33.501156250000001</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
         <v>20</v>
       </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
       <c r="H64" t="s">
         <v>13</v>
       </c>
@@ -2785,30 +2800,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="2">
-        <v>33.500491319444443</v>
-      </c>
-      <c r="C65" s="2">
-        <v>36557.500491319443</v>
+        <v>74</v>
+      </c>
+      <c r="B65" s="3">
+        <v>33.501187847222219</v>
+      </c>
+      <c r="C65" s="3">
+        <v>33.501187847222219</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
       <c r="E65">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2817,27 +2832,27 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="2">
-        <v>33.50054479166667</v>
-      </c>
-      <c r="C66" s="2">
-        <v>36557.50054479167</v>
+        <v>74</v>
+      </c>
+      <c r="B66" s="3">
+        <v>33.501195601851855</v>
+      </c>
+      <c r="C66" s="3">
+        <v>33.501195601851855</v>
       </c>
       <c r="D66">
         <v>9</v>
       </c>
       <c r="E66">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
         <v>61</v>
@@ -2854,25 +2869,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="2">
-        <v>33.500545023148149</v>
-      </c>
-      <c r="C67" s="2">
-        <v>36557.500545023147</v>
+        <v>74</v>
+      </c>
+      <c r="B67" s="3">
+        <v>33.501196990740738</v>
+      </c>
+      <c r="C67" s="3">
+        <v>33.501196990740738</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2881,30 +2896,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="2">
-        <v>33.500569212962965</v>
-      </c>
-      <c r="C68" s="2">
-        <v>36557.500569212963</v>
+        <v>74</v>
+      </c>
+      <c r="B68" s="3">
+        <v>33.5012099537037</v>
+      </c>
+      <c r="C68" s="3">
+        <v>33.5012099537037</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2913,30 +2928,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2">
-        <v>33.500570138888889</v>
+        <v>33.50047546296296</v>
       </c>
       <c r="C69" s="2">
-        <v>36557.500570138887</v>
+        <v>36557.500475462963</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -2945,30 +2960,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2">
-        <v>33.500609490740743</v>
+        <v>33.500487615740738</v>
       </c>
       <c r="C70" s="2">
-        <v>36557.500609490744</v>
+        <v>36557.50048761574</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -2977,30 +2992,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="3">
-        <v>33.501254976851854</v>
-      </c>
-      <c r="C71" s="3">
-        <v>33.501254976851854</v>
+        <v>75</v>
+      </c>
+      <c r="B71" s="2">
+        <v>33.500490393518518</v>
+      </c>
+      <c r="C71" s="2">
+        <v>36557.500490393519</v>
       </c>
       <c r="D71">
         <v>9</v>
       </c>
       <c r="E71">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3009,30 +3024,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3">
-        <v>33.501453009259258</v>
-      </c>
-      <c r="C72" s="3">
-        <v>33.501453009259258</v>
+        <v>75</v>
+      </c>
+      <c r="B72" s="2">
+        <v>33.500491319444443</v>
+      </c>
+      <c r="C72" s="2">
+        <v>36557.500491319443</v>
       </c>
       <c r="D72">
         <v>9</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3041,30 +3056,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3">
-        <v>33.501000115740737</v>
-      </c>
-      <c r="C73" s="3">
-        <v>33.501000115740737</v>
+        <v>75</v>
+      </c>
+      <c r="B73" s="2">
+        <v>33.50054479166667</v>
+      </c>
+      <c r="C73" s="2">
+        <v>36557.50054479167</v>
       </c>
       <c r="D73">
         <v>9</v>
       </c>
       <c r="E73">
-        <v>449</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3078,25 +3093,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="3">
-        <v>33.501011689814817</v>
-      </c>
-      <c r="C74" s="3">
-        <v>33.501011689814817</v>
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
+        <v>33.500545023148149</v>
+      </c>
+      <c r="C74" s="2">
+        <v>36557.500545023147</v>
       </c>
       <c r="D74">
         <v>9</v>
       </c>
       <c r="E74">
-        <v>425</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3105,30 +3120,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="3">
-        <v>33.501023842592595</v>
-      </c>
-      <c r="C75" s="3">
-        <v>33.501023842592595</v>
+        <v>75</v>
+      </c>
+      <c r="B75" s="2">
+        <v>33.500569212962965</v>
+      </c>
+      <c r="C75" s="2">
+        <v>36557.500569212963</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>401</v>
+        <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3137,30 +3152,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="3">
-        <v>33.50104560185185</v>
-      </c>
-      <c r="C76" s="3">
-        <v>33.50104560185185</v>
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.500570138888889</v>
+      </c>
+      <c r="C76" s="2">
+        <v>36557.500570138887</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>358</v>
+        <v>69</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3169,30 +3184,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="3">
-        <v>33.501158449074076</v>
-      </c>
-      <c r="C77" s="3">
-        <v>33.501158449074076</v>
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>33.500609490740743</v>
+      </c>
+      <c r="C77" s="2">
+        <v>36557.500609490744</v>
       </c>
       <c r="D77">
         <v>8</v>
       </c>
       <c r="E77">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3201,30 +3216,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>33.501176504629626</v>
+        <v>33.501071990740741</v>
       </c>
       <c r="C78" s="3">
-        <v>33.501176504629626</v>
+        <v>33.501071990740741</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3233,30 +3248,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="2">
-        <v>33.500416782407406</v>
-      </c>
-      <c r="C79" s="2">
-        <v>36557.500416782408</v>
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>33.501254976851854</v>
+      </c>
+      <c r="C79" s="3">
+        <v>33.501254976851854</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79">
-        <v>648</v>
+        <v>100</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3265,30 +3280,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="2">
-        <v>36557.500421180557</v>
+        <v>76</v>
+      </c>
+      <c r="B80" s="3">
+        <v>33.501453009259258</v>
+      </c>
+      <c r="C80" s="3">
+        <v>33.501453009259258</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3297,30 +3312,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="3">
+        <v>33.500929861111111</v>
+      </c>
+      <c r="C81" s="3">
+        <v>33.500929861111111</v>
+      </c>
+      <c r="D81">
         <v>10</v>
       </c>
-      <c r="B81" s="2">
-        <v>33.50042337962963</v>
-      </c>
-      <c r="C81" s="2">
-        <v>36557.500423379628</v>
-      </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
       <c r="E81">
-        <v>620</v>
+        <v>456</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3329,30 +3344,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="2">
-        <v>33.50042511574074</v>
-      </c>
-      <c r="C82" s="2">
-        <v>36557.500425115744</v>
+        <v>77</v>
+      </c>
+      <c r="B82" s="3">
+        <v>33.501000115740737</v>
+      </c>
+      <c r="C82" s="3">
+        <v>33.501000115740737</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>613</v>
+        <v>449</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3361,30 +3376,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="2">
-        <v>33.500430439814814</v>
-      </c>
-      <c r="C83" s="2">
-        <v>36557.500430439817</v>
+        <v>77</v>
+      </c>
+      <c r="B83" s="3">
+        <v>33.501011689814817</v>
+      </c>
+      <c r="C83" s="3">
+        <v>33.501011689814817</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83">
-        <v>590</v>
+        <v>425</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3393,30 +3408,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="2">
-        <v>33.500436574074072</v>
-      </c>
-      <c r="C84" s="2">
-        <v>36557.500436574075</v>
+        <v>77</v>
+      </c>
+      <c r="B84" s="3">
+        <v>33.501023842592595</v>
+      </c>
+      <c r="C84" s="3">
+        <v>33.501023842592595</v>
       </c>
       <c r="D84">
         <v>9</v>
       </c>
       <c r="E84">
-        <v>565</v>
+        <v>401</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3425,30 +3440,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="2">
-        <v>33.500480324074076</v>
-      </c>
-      <c r="C85" s="2">
-        <v>36557.500480324074</v>
+        <v>77</v>
+      </c>
+      <c r="B85" s="3">
+        <v>33.50104560185185</v>
+      </c>
+      <c r="C85" s="3">
+        <v>33.50104560185185</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3457,30 +3472,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="2">
-        <v>33.500500578703701</v>
-      </c>
-      <c r="C86" s="2">
-        <v>36557.500500578702</v>
+        <v>77</v>
+      </c>
+      <c r="B86" s="3">
+        <v>33.501158449074076</v>
+      </c>
+      <c r="C86" s="3">
+        <v>33.501158449074076</v>
       </c>
       <c r="D86">
         <v>8</v>
       </c>
       <c r="E86">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3489,30 +3504,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="2">
-        <v>33.500515509259259</v>
-      </c>
-      <c r="C87" s="2">
-        <v>36557.500515509259</v>
+        <v>77</v>
+      </c>
+      <c r="B87" s="3">
+        <v>33.501176504629626</v>
+      </c>
+      <c r="C87" s="3">
+        <v>33.501176504629626</v>
       </c>
       <c r="D87">
         <v>8</v>
       </c>
       <c r="E87">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3521,7 +3536,7 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3529,22 +3544,22 @@
         <v>10</v>
       </c>
       <c r="B88" s="2">
-        <v>33.500521759259257</v>
+        <v>33.500416782407406</v>
       </c>
       <c r="C88" s="2">
-        <v>36557.500521759262</v>
+        <v>36557.500416782408</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88">
-        <v>239</v>
+        <v>648</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3553,30 +3568,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="2">
-        <v>33.500555902777776</v>
+      <c r="B89" t="s">
+        <v>80</v>
       </c>
       <c r="C89" s="2">
-        <v>36557.500555902778</v>
+        <v>36557.500421180557</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>129</v>
+        <v>630</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3585,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3593,22 +3608,22 @@
         <v>10</v>
       </c>
       <c r="B90" s="2">
-        <v>33.500588657407405</v>
+        <v>33.50042337962963</v>
       </c>
       <c r="C90" s="2">
-        <v>36557.500588657407</v>
+        <v>36557.500423379628</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>41</v>
+        <v>620</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3617,30 +3632,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="3">
-        <v>33.500947800925928</v>
-      </c>
-      <c r="C91" s="3">
-        <v>33.500947800925928</v>
+        <v>10</v>
+      </c>
+      <c r="B91" s="2">
+        <v>33.50042511574074</v>
+      </c>
+      <c r="C91" s="2">
+        <v>36557.500425115744</v>
       </c>
       <c r="D91">
         <v>9</v>
       </c>
       <c r="E91">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3649,30 +3664,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="3">
-        <v>33.500960416666665</v>
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <v>33.500430439814814</v>
+      </c>
+      <c r="C92" s="2">
+        <v>36557.500430439817</v>
       </c>
       <c r="D92">
         <v>9</v>
       </c>
       <c r="E92">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3681,30 +3696,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="3">
-        <v>33.500991666666664</v>
-      </c>
-      <c r="C93" s="3">
-        <v>33.500991666666664</v>
+        <v>10</v>
+      </c>
+      <c r="B93" s="2">
+        <v>33.500436574074072</v>
+      </c>
+      <c r="C93" s="2">
+        <v>36557.500436574075</v>
       </c>
       <c r="D93">
         <v>9</v>
       </c>
       <c r="E93">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3713,30 +3728,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="3">
-        <v>33.501017592592589</v>
-      </c>
-      <c r="C94" s="3">
-        <v>33.501017592592589</v>
+        <v>10</v>
+      </c>
+      <c r="B94" s="2">
+        <v>33.500480324074076</v>
+      </c>
+      <c r="C94" s="2">
+        <v>36557.500480324074</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3745,30 +3760,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="3">
-        <v>33.501032870370373</v>
-      </c>
-      <c r="C95" s="3">
-        <v>33.501032870370373</v>
+        <v>10</v>
+      </c>
+      <c r="B95" s="2">
+        <v>33.500500578703701</v>
+      </c>
+      <c r="C95" s="2">
+        <v>36557.500500578702</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3777,30 +3792,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="3">
-        <v>33.50107060185185</v>
-      </c>
-      <c r="C96" s="3">
-        <v>33.50107060185185</v>
+        <v>10</v>
+      </c>
+      <c r="B96" s="2">
+        <v>33.500515509259259</v>
+      </c>
+      <c r="C96" s="2">
+        <v>36557.500515509259</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3809,30 +3824,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="3">
-        <v>33.501098726851851</v>
-      </c>
-      <c r="C97" s="3">
-        <v>33.501098726851851</v>
+        <v>10</v>
+      </c>
+      <c r="B97" s="2">
+        <v>33.500521759259257</v>
+      </c>
+      <c r="C97" s="2">
+        <v>36557.500521759262</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3841,30 +3856,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="3">
-        <v>33.501188425925925</v>
-      </c>
-      <c r="C98" s="3">
-        <v>33.501188425925925</v>
+        <v>10</v>
+      </c>
+      <c r="B98" s="2">
+        <v>33.500555902777776</v>
+      </c>
+      <c r="C98" s="2">
+        <v>36557.500555902778</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3873,30 +3888,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>44</v>
-      </c>
-      <c r="B99" s="3">
-        <v>33.501251736111108</v>
-      </c>
-      <c r="C99" s="3">
-        <v>33.501251736111108</v>
+        <v>10</v>
+      </c>
+      <c r="B99" s="2">
+        <v>33.500588657407405</v>
+      </c>
+      <c r="C99" s="2">
+        <v>36557.500588657407</v>
       </c>
       <c r="D99">
         <v>7</v>
       </c>
       <c r="E99">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3905,30 +3920,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B100" s="3">
-        <v>33.502219328703703</v>
+        <v>33.500947800925928</v>
       </c>
       <c r="C100" s="3">
-        <v>33.502219328703703</v>
+        <v>33.500947800925928</v>
       </c>
       <c r="D100">
         <v>9</v>
       </c>
       <c r="E100">
-        <v>376</v>
+        <v>554</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3937,30 +3952,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="3">
-        <v>33.502642824074073</v>
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
       </c>
       <c r="C101" s="3">
-        <v>33.502642824074073</v>
+        <v>33.500960416666665</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -3969,30 +3984,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" s="2">
-        <v>33.500486458333334</v>
-      </c>
-      <c r="C102" s="2">
-        <v>36557.500486458332</v>
+        <v>46</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33.500991666666664</v>
+      </c>
+      <c r="C102" s="3">
+        <v>33.500991666666664</v>
       </c>
       <c r="D102">
         <v>9</v>
       </c>
       <c r="E102">
-        <v>638</v>
+        <v>464</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4001,30 +4016,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" s="2">
-        <v>33.500497337962962</v>
-      </c>
-      <c r="C103" s="2">
-        <v>36557.500497337962</v>
+        <v>46</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.501017592592589</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.501017592592589</v>
       </c>
       <c r="D103">
         <v>9</v>
       </c>
       <c r="E103">
-        <v>594</v>
+        <v>413</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4033,30 +4048,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" s="2">
-        <v>33.500509375</v>
-      </c>
-      <c r="C104" s="2">
-        <v>36557.500509375001</v>
+        <v>46</v>
+      </c>
+      <c r="B104" s="3">
+        <v>33.501032870370373</v>
+      </c>
+      <c r="C104" s="3">
+        <v>33.501032870370373</v>
       </c>
       <c r="D104">
         <v>9</v>
       </c>
       <c r="E104">
-        <v>546</v>
+        <v>384</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4065,30 +4080,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" s="2">
-        <v>33.500511574074075</v>
-      </c>
-      <c r="C105" s="2">
-        <v>36557.500511574071</v>
+        <v>46</v>
+      </c>
+      <c r="B105" s="3">
+        <v>33.50107060185185</v>
+      </c>
+      <c r="C105" s="3">
+        <v>33.50107060185185</v>
       </c>
       <c r="D105">
         <v>9</v>
       </c>
       <c r="E105">
-        <v>537</v>
+        <v>316</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4097,30 +4112,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>54</v>
-      </c>
-      <c r="B106" s="2">
-        <v>33.500512962962965</v>
-      </c>
-      <c r="C106" s="2">
-        <v>36557.500512962964</v>
+        <v>46</v>
+      </c>
+      <c r="B106" s="3">
+        <v>33.501098726851851</v>
+      </c>
+      <c r="C106" s="3">
+        <v>33.501098726851851</v>
       </c>
       <c r="D106">
         <v>9</v>
       </c>
       <c r="E106">
-        <v>532</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4129,30 +4144,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" s="2">
-        <v>33.500519444444443</v>
-      </c>
-      <c r="C107" s="2">
-        <v>36557.500519444446</v>
+        <v>46</v>
+      </c>
+      <c r="B107" s="3">
+        <v>33.501188425925925</v>
+      </c>
+      <c r="C107" s="3">
+        <v>33.501188425925925</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>507</v>
+        <v>134</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4161,30 +4176,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>54</v>
-      </c>
-      <c r="B108" s="2">
-        <v>33.500553472222222</v>
-      </c>
-      <c r="C108" s="2">
-        <v>36557.500553472222</v>
+        <v>46</v>
+      </c>
+      <c r="B108" s="3">
+        <v>33.501251736111108</v>
+      </c>
+      <c r="C108" s="3">
+        <v>33.501251736111108</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>383</v>
+        <v>60</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4193,30 +4208,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" s="2">
-        <v>33.500576273148148</v>
-      </c>
-      <c r="C109" s="2">
-        <v>36557.500576273145</v>
+        <v>58</v>
+      </c>
+      <c r="B109" s="3">
+        <v>33.502219328703703</v>
+      </c>
+      <c r="C109" s="3">
+        <v>33.502219328703703</v>
       </c>
       <c r="D109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4225,30 +4240,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>54</v>
-      </c>
-      <c r="B110" s="2">
-        <v>33.500619560185186</v>
-      </c>
-      <c r="C110" s="2">
-        <v>36557.500619560182</v>
+        <v>58</v>
+      </c>
+      <c r="B110" s="3">
+        <v>33.502642824074073</v>
+      </c>
+      <c r="C110" s="3">
+        <v>33.502642824074073</v>
       </c>
       <c r="D110">
         <v>8</v>
       </c>
       <c r="E110">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4257,30 +4272,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B111" s="2">
-        <v>33.500633217592593</v>
+        <v>33.500486458333334</v>
       </c>
       <c r="C111" s="2">
-        <v>36557.500633217591</v>
+        <v>36557.500486458332</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E111">
-        <v>142</v>
+        <v>638</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G111" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4289,30 +4304,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>66</v>
-      </c>
-      <c r="B112" s="3">
-        <v>33.501099768518522</v>
-      </c>
-      <c r="C112" s="3">
-        <v>33.501099768518522</v>
+        <v>59</v>
+      </c>
+      <c r="B112" s="2">
+        <v>33.500497337962962</v>
+      </c>
+      <c r="C112" s="2">
+        <v>36557.500497337962</v>
       </c>
       <c r="D112">
         <v>9</v>
       </c>
       <c r="E112">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G112" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4321,30 +4336,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>66</v>
-      </c>
-      <c r="B113" s="3">
-        <v>33.501138310185183</v>
-      </c>
-      <c r="C113" s="3">
-        <v>33.501138310185183</v>
+        <v>59</v>
+      </c>
+      <c r="B113" s="2">
+        <v>33.500509375</v>
+      </c>
+      <c r="C113" s="2">
+        <v>36557.500509375001</v>
       </c>
       <c r="D113">
         <v>9</v>
       </c>
       <c r="E113">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4353,30 +4368,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>66</v>
-      </c>
-      <c r="B114" s="3">
-        <v>33.501144097222223</v>
-      </c>
-      <c r="C114" s="3">
-        <v>33.501144097222223</v>
+        <v>59</v>
+      </c>
+      <c r="B114" s="2">
+        <v>33.500511574074075</v>
+      </c>
+      <c r="C114" s="2">
+        <v>36557.500511574071</v>
       </c>
       <c r="D114">
         <v>9</v>
       </c>
       <c r="E114">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4385,30 +4400,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>66</v>
-      </c>
-      <c r="B115" s="3">
-        <v>33.501145023148148</v>
-      </c>
-      <c r="C115" s="3">
-        <v>33.501145023148148</v>
+        <v>59</v>
+      </c>
+      <c r="B115" s="2">
+        <v>33.500512962962965</v>
+      </c>
+      <c r="C115" s="2">
+        <v>36557.500512962964</v>
       </c>
       <c r="D115">
         <v>9</v>
       </c>
       <c r="E115">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4417,30 +4432,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" s="3">
-        <v>33.50115509259259</v>
-      </c>
-      <c r="C116" s="3">
-        <v>33.50115509259259</v>
+        <v>59</v>
+      </c>
+      <c r="B116" s="2">
+        <v>33.500519444444443</v>
+      </c>
+      <c r="C116" s="2">
+        <v>36557.500519444446</v>
       </c>
       <c r="D116">
         <v>9</v>
       </c>
       <c r="E116">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4449,30 +4464,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>66</v>
-      </c>
-      <c r="B117" s="3">
-        <v>33.501206365740742</v>
-      </c>
-      <c r="C117" s="3">
-        <v>33.501206365740742</v>
+        <v>59</v>
+      </c>
+      <c r="B117" s="2">
+        <v>33.500553472222222</v>
+      </c>
+      <c r="C117" s="2">
+        <v>36557.500553472222</v>
       </c>
       <c r="D117">
         <v>8</v>
       </c>
       <c r="E117">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4481,30 +4496,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>66</v>
-      </c>
-      <c r="B118" s="3">
-        <v>33.501286574074072</v>
-      </c>
-      <c r="C118" s="3">
-        <v>33.501286574074072</v>
+        <v>59</v>
+      </c>
+      <c r="B118" s="2">
+        <v>33.500576273148148</v>
+      </c>
+      <c r="C118" s="2">
+        <v>36557.500576273145</v>
       </c>
       <c r="D118">
         <v>8</v>
       </c>
       <c r="E118">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4513,30 +4528,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>66</v>
-      </c>
-      <c r="B119" s="3">
-        <v>33.501290740740743</v>
-      </c>
-      <c r="C119" s="3">
-        <v>33.501290740740743</v>
+        <v>59</v>
+      </c>
+      <c r="B119" s="2">
+        <v>33.500619560185186</v>
+      </c>
+      <c r="C119" s="2">
+        <v>36557.500619560182</v>
       </c>
       <c r="D119">
         <v>8</v>
       </c>
       <c r="E119">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4545,30 +4560,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B120" s="2">
-        <v>33.500586574074077</v>
+        <v>33.500633217592593</v>
       </c>
       <c r="C120" s="2">
-        <v>36557.500586574075</v>
+        <v>36557.500633217591</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E120">
-        <v>531</v>
+        <v>142</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4577,30 +4592,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>68</v>
-      </c>
-      <c r="B121" s="2">
-        <v>33.500603819444443</v>
-      </c>
-      <c r="C121" s="2">
-        <v>36557.500603819448</v>
+        <v>71</v>
+      </c>
+      <c r="B121" s="3">
+        <v>33.501099768518522</v>
+      </c>
+      <c r="C121" s="3">
+        <v>33.501099768518522</v>
       </c>
       <c r="D121">
         <v>9</v>
       </c>
       <c r="E121">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4609,30 +4624,30 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>68</v>
-      </c>
-      <c r="B122" s="2">
-        <v>33.50062060185185</v>
-      </c>
-      <c r="C122" s="2">
-        <v>36557.500620601852</v>
+        <v>71</v>
+      </c>
+      <c r="B122" s="3">
+        <v>33.501138310185183</v>
+      </c>
+      <c r="C122" s="3">
+        <v>33.501138310185183</v>
       </c>
       <c r="D122">
         <v>9</v>
       </c>
       <c r="E122">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4641,30 +4656,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>68</v>
-      </c>
-      <c r="B123" s="2">
-        <v>33.500644444444447</v>
-      </c>
-      <c r="C123" s="2">
-        <v>36557.500644444444</v>
+        <v>71</v>
+      </c>
+      <c r="B123" s="3">
+        <v>33.501144097222223</v>
+      </c>
+      <c r="C123" s="3">
+        <v>33.501144097222223</v>
       </c>
       <c r="D123">
         <v>9</v>
       </c>
       <c r="E123">
-        <v>348</v>
+        <v>480</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4673,30 +4688,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>68</v>
-      </c>
-      <c r="B124" s="2">
-        <v>33.50065428240741</v>
-      </c>
-      <c r="C124" s="2">
-        <v>36557.500654282405</v>
+        <v>71</v>
+      </c>
+      <c r="B124" s="3">
+        <v>33.501145023148148</v>
+      </c>
+      <c r="C124" s="3">
+        <v>33.501145023148148</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>320</v>
+        <v>478</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4705,30 +4720,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>68</v>
-      </c>
-      <c r="B125" s="2">
-        <v>33.500677430555555</v>
-      </c>
-      <c r="C125" s="2">
-        <v>36557.500677430558</v>
+        <v>71</v>
+      </c>
+      <c r="B125" s="3">
+        <v>33.50115509259259</v>
+      </c>
+      <c r="C125" s="3">
+        <v>33.50115509259259</v>
       </c>
       <c r="D125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>256</v>
+        <v>461</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4737,30 +4752,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>68</v>
-      </c>
-      <c r="B126" s="2">
-        <v>33.500684606481478</v>
-      </c>
-      <c r="C126" s="2">
-        <v>36557.500684606479</v>
+        <v>71</v>
+      </c>
+      <c r="B126" s="3">
+        <v>33.501206365740742</v>
+      </c>
+      <c r="C126" s="3">
+        <v>33.501206365740742</v>
       </c>
       <c r="D126">
         <v>8</v>
       </c>
       <c r="E126">
-        <v>237</v>
+        <v>376</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4769,30 +4784,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>68</v>
-      </c>
-      <c r="B127" s="2">
-        <v>33.50068553240741</v>
-      </c>
-      <c r="C127" s="2">
-        <v>36557.50068553241</v>
+        <v>71</v>
+      </c>
+      <c r="B127" s="3">
+        <v>33.501286574074072</v>
+      </c>
+      <c r="C127" s="3">
+        <v>33.501286574074072</v>
       </c>
       <c r="D127">
         <v>8</v>
       </c>
       <c r="E127">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4801,62 +4816,62 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B128" s="3">
-        <v>33.500745254629628</v>
+        <v>33.501290740740743</v>
       </c>
       <c r="C128" s="3">
-        <v>33.500745254629628</v>
+        <v>33.501290740740743</v>
       </c>
       <c r="D128">
         <v>8</v>
       </c>
       <c r="E128">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G128" t="s">
+        <v>90</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
         <v>91</v>
-      </c>
-      <c r="H128" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129" s="3">
-        <v>33.500821296296294</v>
-      </c>
-      <c r="C129" s="3">
-        <v>33.500821296296294</v>
+        <v>73</v>
+      </c>
+      <c r="B129" s="2">
+        <v>33.500586574074077</v>
+      </c>
+      <c r="C129" s="2">
+        <v>36557.500586574075</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>531</v>
       </c>
       <c r="F129" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -4865,30 +4880,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>68</v>
-      </c>
-      <c r="B130" s="3">
-        <v>33.500891203703702</v>
-      </c>
-      <c r="C130" s="3">
-        <v>33.500891203703702</v>
+        <v>73</v>
+      </c>
+      <c r="B130" s="2">
+        <v>33.500603819444443</v>
+      </c>
+      <c r="C130" s="2">
+        <v>36557.500603819448</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -4897,30 +4912,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" s="3">
-        <v>33.50133275462963</v>
-      </c>
-      <c r="C131" s="3">
-        <v>33.50133275462963</v>
+        <v>73</v>
+      </c>
+      <c r="B131" s="2">
+        <v>33.50062060185185</v>
+      </c>
+      <c r="C131" s="2">
+        <v>36557.500620601852</v>
       </c>
       <c r="D131">
         <v>9</v>
       </c>
       <c r="E131">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -4929,30 +4944,30 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>69</v>
-      </c>
-      <c r="B132" s="3">
-        <v>33.501349074074071</v>
-      </c>
-      <c r="C132" s="3">
-        <v>33.501349074074071</v>
+        <v>73</v>
+      </c>
+      <c r="B132" s="2">
+        <v>33.500644444444447</v>
+      </c>
+      <c r="C132" s="2">
+        <v>36557.500644444444</v>
       </c>
       <c r="D132">
         <v>9</v>
       </c>
       <c r="E132">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -4961,30 +4976,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" s="3">
-        <v>33.501372337962962</v>
-      </c>
-      <c r="C133" s="3">
-        <v>33.501372337962962</v>
+        <v>73</v>
+      </c>
+      <c r="B133" s="2">
+        <v>33.50065428240741</v>
+      </c>
+      <c r="C133" s="2">
+        <v>36557.500654282405</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -4993,30 +5008,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>69</v>
-      </c>
-      <c r="B134" s="3">
-        <v>33.501372685185189</v>
-      </c>
-      <c r="C134" s="3">
-        <v>33.501372685185189</v>
+        <v>73</v>
+      </c>
+      <c r="B134" s="2">
+        <v>33.500677430555555</v>
+      </c>
+      <c r="C134" s="2">
+        <v>36557.500677430558</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5025,30 +5040,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B135" s="2">
-        <v>33.500475925925926</v>
+        <v>33.500684606481478</v>
       </c>
       <c r="C135" s="2">
-        <v>36557.500475925925</v>
+        <v>36557.500684606479</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>576</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5057,30 +5072,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B136" s="2">
-        <v>33.500538425925924</v>
+        <v>33.50068553240741</v>
       </c>
       <c r="C136" s="2">
-        <v>36557.500538425928</v>
+        <v>36557.50068553241</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5089,30 +5104,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>70</v>
-      </c>
-      <c r="B137" s="2">
-        <v>33.500578240740744</v>
-      </c>
-      <c r="C137" s="2">
-        <v>36557.500578240739</v>
+        <v>73</v>
+      </c>
+      <c r="B137" s="3">
+        <v>33.500745254629628</v>
+      </c>
+      <c r="C137" s="3">
+        <v>33.500745254629628</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5121,30 +5136,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>70</v>
-      </c>
-      <c r="B138" s="2">
-        <v>33.500587152777776</v>
-      </c>
-      <c r="C138" s="2">
-        <v>36557.500587152776</v>
+        <v>73</v>
+      </c>
+      <c r="B138" s="3">
+        <v>33.500821296296294</v>
+      </c>
+      <c r="C138" s="3">
+        <v>33.500821296296294</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5153,30 +5168,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>70</v>
-      </c>
-      <c r="B139" s="2">
-        <v>33.500593402777781</v>
-      </c>
-      <c r="C139" s="2">
-        <v>36557.500593402779</v>
+        <v>73</v>
+      </c>
+      <c r="B139" s="3">
+        <v>33.500891203703702</v>
+      </c>
+      <c r="C139" s="3">
+        <v>33.500891203703702</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5185,30 +5200,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>70</v>
-      </c>
-      <c r="B140" s="2">
-        <v>33.500622337962966</v>
-      </c>
-      <c r="C140" s="2">
-        <v>36557.500622337961</v>
+        <v>74</v>
+      </c>
+      <c r="B140" s="3">
+        <v>33.50133275462963</v>
+      </c>
+      <c r="C140" s="3">
+        <v>33.50133275462963</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5217,30 +5232,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>70</v>
-      </c>
-      <c r="B141" s="2">
-        <v>33.500682175925924</v>
-      </c>
-      <c r="C141" s="2">
-        <v>36557.500682175923</v>
+        <v>74</v>
+      </c>
+      <c r="B141" s="3">
+        <v>33.501349074074071</v>
+      </c>
+      <c r="C141" s="3">
+        <v>33.501349074074071</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E141">
-        <v>24</v>
+        <v>434</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5249,30 +5264,30 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>70</v>
-      </c>
-      <c r="B142" s="2">
-        <v>33.5006869212963</v>
-      </c>
-      <c r="C142" s="2">
-        <v>36557.500686921296</v>
+        <v>74</v>
+      </c>
+      <c r="B142" s="3">
+        <v>33.501372337962962</v>
+      </c>
+      <c r="C142" s="3">
+        <v>33.501372337962962</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5281,39 +5296,327 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B143" s="3">
+        <v>33.501372685185189</v>
+      </c>
+      <c r="C143" s="3">
+        <v>33.501372685185189</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143">
+        <v>401</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144" s="2">
+        <v>33.500475925925926</v>
+      </c>
+      <c r="C144" s="2">
+        <v>36557.500475925925</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144">
+        <v>576</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" t="s">
+        <v>102</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>75</v>
+      </c>
+      <c r="B145" s="2">
+        <v>33.500538425925924</v>
+      </c>
+      <c r="C145" s="2">
+        <v>36557.500538425928</v>
+      </c>
+      <c r="D145">
+        <v>9</v>
+      </c>
+      <c r="E145">
+        <v>346</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>86</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B146" s="2">
+        <v>33.500578240740744</v>
+      </c>
+      <c r="C146" s="2">
+        <v>36557.500578240739</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="E146">
+        <v>226</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>75</v>
+      </c>
+      <c r="B147" s="2">
+        <v>33.500587152777776</v>
+      </c>
+      <c r="C147" s="2">
+        <v>36557.500587152776</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>203</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>88</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="2">
+        <v>33.500593402777781</v>
+      </c>
+      <c r="C148" s="2">
+        <v>36557.500593402779</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>187</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>75</v>
+      </c>
+      <c r="B149" s="2">
+        <v>33.500622337962966</v>
+      </c>
+      <c r="C149" s="2">
+        <v>36557.500622337961</v>
+      </c>
+      <c r="D149">
+        <v>8</v>
+      </c>
+      <c r="E149">
+        <v>120</v>
+      </c>
+      <c r="F149" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" t="s">
+        <v>90</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B150" s="2">
+        <v>33.500682175925924</v>
+      </c>
+      <c r="C150" s="2">
+        <v>36557.500682175923</v>
+      </c>
+      <c r="D150">
+        <v>8</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
+      </c>
+      <c r="F150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150" t="s">
+        <v>96</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>75</v>
+      </c>
+      <c r="B151" s="2">
+        <v>33.5006869212963</v>
+      </c>
+      <c r="C151" s="2">
+        <v>36557.500686921296</v>
+      </c>
+      <c r="D151">
+        <v>8</v>
+      </c>
+      <c r="E151">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>92</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="3">
         <v>33.501350115740742</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C152" s="3">
         <v>33.501350115740742</v>
       </c>
-      <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143">
+      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="E152">
         <v>210</v>
       </c>
-      <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>97</v>
-      </c>
-      <c r="H143" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" t="s">
-        <v>111</v>
+      <c r="F152" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>102</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Hunter Keane.xlsx
+++ b/USASwimming/Times For Hunter Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="123">
   <si>
     <t>Event</t>
   </si>
@@ -60,15 +60,27 @@
     <t>"BB"</t>
   </si>
   <si>
+    <t>2019 CT CDOG December 10 &amp; U Quadrath</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>12/8/2019</t>
+  </si>
+  <si>
+    <t>2019 CT SOCO 18th Annual Hutchinson</t>
+  </si>
+  <si>
+    <t>12/7/2019</t>
+  </si>
+  <si>
     <t>2019 CT RYWC Candlewood Cup</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>11/9/2019</t>
   </si>
   <si>
@@ -76,6 +88,12 @@
   </si>
   <si>
     <t>3/2/2019</t>
+  </si>
+  <si>
+    <t>2019 CT WRAT Maura Marden Free</t>
+  </si>
+  <si>
+    <t>11/16/2019</t>
   </si>
   <si>
     <t>2019 CT Age Group Championship</t>
@@ -733,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -792,16 +810,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.500363541666665</v>
+        <v>33.500360069444447</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.500363541665</v>
+        <v>36557.500360069447</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -824,16 +842,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>33.50036597222222</v>
+        <v>33.500363078703707</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.500365972221</v>
+        <v>36557.500363078703</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>641</v>
+        <v>544</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -856,16 +874,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500381365740743</v>
+        <v>33.500363541666665</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500381365739</v>
+        <v>36557.500363541665</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -888,16 +906,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500391550925926</v>
+        <v>33.50036597222222</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500391550922</v>
+        <v>36557.500365972221</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>518</v>
+        <v>641</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -920,31 +938,31 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500400694444444</v>
+        <v>33.500368055555555</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500400694444</v>
+        <v>36557.500368055553</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,31 +970,31 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500406828703703</v>
+        <v>33.500381365740743</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500406828702</v>
+        <v>36557.500381365739</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>448</v>
+        <v>566</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -984,31 +1002,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500413657407407</v>
+        <v>33.500391550925926</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500413657406</v>
+        <v>36557.500391550922</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>418</v>
+        <v>518</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,31 +1034,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500444328703701</v>
+        <v>33.500400694444444</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500444328703</v>
+        <v>36557.500400694444</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>287</v>
+        <v>476</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1048,31 +1066,31 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500447453703707</v>
+        <v>33.500406828703703</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500447453705</v>
+        <v>36557.500406828702</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>274</v>
+        <v>448</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1080,31 +1098,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500448611111111</v>
+        <v>33.500413657407407</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500448611114</v>
+        <v>36557.500413657406</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>269</v>
+        <v>418</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,19 +1130,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500485300925924</v>
+        <v>33.500444328703701</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.500485300923</v>
+        <v>36557.500444328703</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1144,19 +1162,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500492476851853</v>
+        <v>33.500447453703707</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500492476851</v>
+        <v>36557.500447453705</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1176,19 +1194,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>33.500517708333334</v>
+        <v>33.500448611111111</v>
       </c>
       <c r="C14" s="2">
-        <v>36557.500517708337</v>
+        <v>36557.500448611114</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>40</v>
@@ -1208,19 +1226,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500517939814813</v>
+        <v>33.500485300925924</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.500517939814</v>
+        <v>36557.500485300923</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>42</v>
@@ -1240,19 +1258,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>33.500530092592591</v>
+        <v>33.500492476851853</v>
       </c>
       <c r="C16" s="2">
-        <v>36557.500530092591</v>
+        <v>36557.500492476851</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
         <v>44</v>
@@ -1269,57 +1287,57 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>33.500517708333334</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36557.500517708337</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3">
-        <v>33.500843402777775</v>
-      </c>
-      <c r="C17" s="3">
-        <v>33.500843402777775</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>391</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
         <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3">
-        <v>33.500845370370371</v>
-      </c>
-      <c r="C18" s="3">
-        <v>33.500845370370371</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>33.500517939814813</v>
+      </c>
+      <c r="C18" s="2">
+        <v>36557.500517939814</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>387</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1333,25 +1351,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="3">
-        <v>33.50088090277778</v>
-      </c>
-      <c r="C19" s="3">
-        <v>33.50088090277778</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33.500530092592591</v>
+      </c>
+      <c r="C19" s="2">
+        <v>36557.500530092591</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>446</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1360,30 +1378,30 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3">
-        <v>33.500996759259259</v>
+        <v>33.500843402777775</v>
       </c>
       <c r="C20" s="3">
-        <v>33.500996759259259</v>
+        <v>33.500843402777775</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1392,30 +1410,30 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3">
-        <v>33.501010532407406</v>
+        <v>33.500845370370371</v>
       </c>
       <c r="C21" s="3">
-        <v>33.501010532407406</v>
+        <v>33.500845370370371</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>190</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1424,30 +1442,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3">
-        <v>33.501020601851849</v>
+        <v>33.50088090277778</v>
       </c>
       <c r="C22" s="3">
-        <v>33.501020601851849</v>
+        <v>33.50088090277778</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22">
-        <v>174</v>
+        <v>446</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1456,30 +1474,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3">
-        <v>33.501068981481481</v>
+        <v>33.500892013888887</v>
       </c>
       <c r="C23" s="3">
-        <v>33.501068981481481</v>
+        <v>33.500892013888887</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1488,30 +1506,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3">
-        <v>33.501085185185183</v>
+        <v>33.500996759259259</v>
       </c>
       <c r="C24" s="3">
-        <v>33.501085185185183</v>
+        <v>33.500996759259259</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1520,62 +1538,62 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3">
-        <v>33.501126388888892</v>
+        <v>33.501010532407406</v>
       </c>
       <c r="C25" s="3">
-        <v>33.501126388888892</v>
+        <v>33.501010532407406</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3">
-        <v>33.50115520833333</v>
+        <v>33.501020601851849</v>
       </c>
       <c r="C26" s="3">
-        <v>33.50115520833333</v>
+        <v>33.501020601851849</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1584,30 +1602,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3">
-        <v>33.502048842592593</v>
+        <v>33.501068981481481</v>
       </c>
       <c r="C27" s="3">
-        <v>33.502048842592593</v>
+        <v>33.501068981481481</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1616,30 +1634,30 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3">
-        <v>33.502210416666664</v>
+        <v>33.501085185185183</v>
       </c>
       <c r="C28" s="3">
-        <v>33.502210416666664</v>
+        <v>33.501085185185183</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1648,30 +1666,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3">
-        <v>33.502282870370372</v>
+        <v>33.501126388888892</v>
       </c>
       <c r="C29" s="3">
-        <v>33.502282870370372</v>
+        <v>33.501126388888892</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1680,30 +1698,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2">
-        <v>33.500432407407409</v>
-      </c>
-      <c r="C30" s="2">
-        <v>36557.500432407411</v>
+        <v>52</v>
+      </c>
+      <c r="B30" s="3">
+        <v>33.50115520833333</v>
+      </c>
+      <c r="C30" s="3">
+        <v>33.50115520833333</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>607</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1712,30 +1730,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2">
-        <v>33.500436574074072</v>
-      </c>
-      <c r="C31" s="2">
-        <v>36557.500436574075</v>
+        <v>64</v>
+      </c>
+      <c r="B31" s="3">
+        <v>33.501835416666665</v>
+      </c>
+      <c r="C31" s="3">
+        <v>33.501835416666665</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>588</v>
+        <v>355</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1744,30 +1762,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="2">
-        <v>33.500449305555556</v>
-      </c>
-      <c r="C32" s="2">
-        <v>36557.500449305553</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>33.502048842592593</v>
+      </c>
+      <c r="C32" s="3">
+        <v>33.502048842592593</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>531</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1776,30 +1794,30 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="2">
-        <v>33.500450810185185</v>
-      </c>
-      <c r="C33" s="2">
-        <v>36557.500450810185</v>
+        <v>64</v>
+      </c>
+      <c r="B33" s="3">
+        <v>33.502210416666664</v>
+      </c>
+      <c r="C33" s="3">
+        <v>33.502210416666664</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33">
-        <v>524</v>
+        <v>151</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1808,62 +1826,62 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33.502282870370372</v>
+      </c>
+      <c r="C34" s="3">
+        <v>33.502282870370372</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" s="2">
-        <v>33.500462731481484</v>
-      </c>
-      <c r="C34" s="2">
-        <v>36557.500462731485</v>
-      </c>
-      <c r="D34">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>473</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2">
-        <v>33.500463310185182</v>
+        <v>33.500432407407409</v>
       </c>
       <c r="C35" s="2">
-        <v>36557.500463310185</v>
+        <v>36557.500432407411</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1872,30 +1890,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2">
-        <v>33.500467592592592</v>
+        <v>33.500432870370368</v>
       </c>
       <c r="C36" s="2">
-        <v>36557.500467592596</v>
+        <v>36557.500432870373</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1904,30 +1922,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2">
-        <v>33.50050648148148</v>
+        <v>33.500436574074072</v>
       </c>
       <c r="C37" s="2">
-        <v>36557.500506481483</v>
+        <v>36557.500436574075</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>299</v>
+        <v>588</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1936,30 +1954,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2">
-        <v>33.500524768518517</v>
+        <v>33.500449305555556</v>
       </c>
       <c r="C38" s="2">
-        <v>36557.500524768519</v>
+        <v>36557.500449305553</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1968,30 +1986,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2">
-        <v>33.500525347222222</v>
+        <v>33.500450810185185</v>
       </c>
       <c r="C39" s="2">
-        <v>36557.500525347219</v>
+        <v>36557.500450810185</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>233</v>
+        <v>524</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2000,30 +2018,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2">
-        <v>33.500526273148147</v>
+        <v>33.500462731481484</v>
       </c>
       <c r="C40" s="2">
-        <v>36557.50052627315</v>
+        <v>36557.500462731485</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>229</v>
+        <v>473</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2032,30 +2050,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B41" s="2">
+        <v>33.500463310185182</v>
       </c>
       <c r="C41" s="2">
-        <v>36557.500528935183</v>
+        <v>36557.500463310185</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>221</v>
+        <v>470</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2064,30 +2082,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2">
-        <v>33.500542013888889</v>
+        <v>33.500467592592592</v>
       </c>
       <c r="C42" s="2">
-        <v>36557.500542013891</v>
+        <v>36557.500467592596</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>179</v>
+        <v>452</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2096,30 +2114,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2">
-        <v>33.50056990740741</v>
+        <v>33.50050648148148</v>
       </c>
       <c r="C43" s="2">
-        <v>36557.50056990741</v>
+        <v>36557.500506481483</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2128,30 +2146,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2">
-        <v>33.50059537037037</v>
+        <v>33.500524768518517</v>
       </c>
       <c r="C44" s="2">
-        <v>36557.500595370373</v>
+        <v>36557.500524768519</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2160,30 +2178,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3">
-        <v>33.500926967592591</v>
-      </c>
-      <c r="C45" s="3">
-        <v>33.500926967592591</v>
+        <v>65</v>
+      </c>
+      <c r="B45" s="2">
+        <v>33.500525347222222</v>
+      </c>
+      <c r="C45" s="2">
+        <v>36557.500525347219</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>613</v>
+        <v>233</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2192,30 +2210,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="3">
-        <v>33.500952893518516</v>
-      </c>
-      <c r="C46" s="3">
-        <v>33.500952893518516</v>
+        <v>65</v>
+      </c>
+      <c r="B46" s="2">
+        <v>33.500526273148147</v>
+      </c>
+      <c r="C46" s="2">
+        <v>36557.50052627315</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>558</v>
+        <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2224,30 +2242,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="3">
-        <v>33.500970138888889</v>
-      </c>
-      <c r="C47" s="3">
-        <v>33.500970138888889</v>
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="2">
+        <v>36557.500528935183</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>387</v>
+        <v>221</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2256,30 +2274,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="3">
-        <v>33.500985416666666</v>
-      </c>
-      <c r="C48" s="3">
-        <v>33.500985416666666</v>
+        <v>65</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.500542013888889</v>
+      </c>
+      <c r="C48" s="2">
+        <v>36557.500542013891</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>491</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2288,30 +2306,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="3">
-        <v>33.500987152777775</v>
-      </c>
-      <c r="C49" s="3">
-        <v>33.500987152777775</v>
+        <v>65</v>
+      </c>
+      <c r="B49" s="2">
+        <v>33.50056990740741</v>
+      </c>
+      <c r="C49" s="2">
+        <v>36557.50056990741</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>488</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2320,30 +2338,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="3">
-        <v>33.501002893518518</v>
-      </c>
-      <c r="C50" s="3">
-        <v>33.501002893518518</v>
+        <v>65</v>
+      </c>
+      <c r="B50" s="2">
+        <v>33.50059537037037</v>
+      </c>
+      <c r="C50" s="2">
+        <v>36557.500595370373</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>456</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2352,30 +2370,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500926967592591</v>
       </c>
       <c r="C51" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500926967592591</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>295</v>
+        <v>613</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2384,30 +2402,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3">
-        <v>33.501120023148147</v>
+        <v>33.500935532407411</v>
       </c>
       <c r="C52" s="3">
-        <v>33.501120023148147</v>
+        <v>33.500935532407411</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>247</v>
+        <v>458</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2416,30 +2434,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B53" s="3">
-        <v>33.501287268518517</v>
+        <v>33.500952893518516</v>
       </c>
       <c r="C53" s="3">
-        <v>33.501287268518517</v>
+        <v>33.500952893518516</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>36</v>
+        <v>558</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2448,30 +2466,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="2">
-        <v>33.500535648148151</v>
-      </c>
-      <c r="C54" s="2">
-        <v>36557.500535648149</v>
+        <v>77</v>
+      </c>
+      <c r="B54" s="3">
+        <v>33.500970138888889</v>
+      </c>
+      <c r="C54" s="3">
+        <v>33.500970138888889</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2480,30 +2498,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="2">
-        <v>33.50054039351852</v>
-      </c>
-      <c r="C55" s="2">
-        <v>36557.500540393521</v>
+        <v>77</v>
+      </c>
+      <c r="B55" s="3">
+        <v>33.500985416666666</v>
+      </c>
+      <c r="C55" s="3">
+        <v>33.500985416666666</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="E55">
-        <v>401</v>
+        <v>491</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2512,30 +2530,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="2">
-        <v>33.500540624999999</v>
-      </c>
-      <c r="C56" s="2">
-        <v>36557.500540624998</v>
+        <v>77</v>
+      </c>
+      <c r="B56" s="3">
+        <v>33.500987152777775</v>
+      </c>
+      <c r="C56" s="3">
+        <v>33.500987152777775</v>
       </c>
       <c r="D56">
         <v>9</v>
       </c>
       <c r="E56">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2544,62 +2562,62 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="3">
+        <v>33.501002893518518</v>
+      </c>
+      <c r="C57" s="3">
+        <v>33.501002893518518</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>456</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
         <v>73</v>
-      </c>
-      <c r="B57" s="2">
-        <v>33.500549537037038</v>
-      </c>
-      <c r="C57" s="2">
-        <v>36557.500549537035</v>
-      </c>
-      <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>369</v>
-      </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="2">
-        <v>33.500566203703706</v>
-      </c>
-      <c r="C58" s="2">
-        <v>36557.5005662037</v>
+        <v>77</v>
+      </c>
+      <c r="B58" s="3">
+        <v>33.501091319444441</v>
+      </c>
+      <c r="C58" s="3">
+        <v>33.501091319444441</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2608,30 +2626,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="2">
-        <v>33.500575115740737</v>
-      </c>
-      <c r="C59" s="2">
-        <v>36557.500575115744</v>
+        <v>77</v>
+      </c>
+      <c r="B59" s="3">
+        <v>33.501120023148147</v>
+      </c>
+      <c r="C59" s="3">
+        <v>33.501120023148147</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2640,30 +2658,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="2">
-        <v>33.500616666666666</v>
-      </c>
-      <c r="C60" s="2">
-        <v>36557.500616666664</v>
+        <v>77</v>
+      </c>
+      <c r="B60" s="3">
+        <v>33.501287268518517</v>
+      </c>
+      <c r="C60" s="3">
+        <v>33.501287268518517</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2672,30 +2690,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2">
-        <v>33.500629398148149</v>
+        <v>33.500489004629628</v>
       </c>
       <c r="C61" s="2">
-        <v>36557.50062939815</v>
+        <v>36557.500489004633</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>129</v>
+        <v>448</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2704,30 +2722,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2">
-        <v>33.500659143518519</v>
+        <v>33.500535648148151</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500659143516</v>
+        <v>36557.500535648149</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2736,30 +2754,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="3">
-        <v>33.501117245370374</v>
-      </c>
-      <c r="C63" s="3">
-        <v>33.501117245370374</v>
+        <v>79</v>
+      </c>
+      <c r="B63" s="2">
+        <v>33.50054039351852</v>
+      </c>
+      <c r="C63" s="2">
+        <v>36557.500540393521</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2768,30 +2786,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="3">
-        <v>33.501156250000001</v>
-      </c>
-      <c r="C64" s="3">
-        <v>33.501156250000001</v>
+        <v>79</v>
+      </c>
+      <c r="B64" s="2">
+        <v>33.500540624999999</v>
+      </c>
+      <c r="C64" s="2">
+        <v>36557.500540624998</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2800,30 +2818,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="3">
-        <v>33.501187847222219</v>
-      </c>
-      <c r="C65" s="3">
-        <v>33.501187847222219</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="2">
+        <v>33.500549537037038</v>
+      </c>
+      <c r="C65" s="2">
+        <v>36557.500549537035</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
       <c r="E65">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2832,30 +2850,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="3">
-        <v>33.501195601851855</v>
-      </c>
-      <c r="C66" s="3">
-        <v>33.501195601851855</v>
+        <v>79</v>
+      </c>
+      <c r="B66" s="2">
+        <v>33.500566203703706</v>
+      </c>
+      <c r="C66" s="2">
+        <v>36557.5005662037</v>
       </c>
       <c r="D66">
         <v>9</v>
       </c>
       <c r="E66">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2864,30 +2882,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="3">
-        <v>33.501196990740738</v>
-      </c>
-      <c r="C67" s="3">
-        <v>33.501196990740738</v>
+        <v>79</v>
+      </c>
+      <c r="B67" s="2">
+        <v>33.500575115740737</v>
+      </c>
+      <c r="C67" s="2">
+        <v>36557.500575115744</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2896,30 +2914,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="3">
-        <v>33.5012099537037</v>
-      </c>
-      <c r="C68" s="3">
-        <v>33.5012099537037</v>
+        <v>79</v>
+      </c>
+      <c r="B68" s="2">
+        <v>33.500616666666666</v>
+      </c>
+      <c r="C68" s="2">
+        <v>36557.500616666664</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2928,30 +2946,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2">
-        <v>33.50047546296296</v>
+        <v>33.500629398148149</v>
       </c>
       <c r="C69" s="2">
-        <v>36557.500475462963</v>
+        <v>36557.50062939815</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -2960,30 +2978,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
-        <v>33.500487615740738</v>
+        <v>33.500659143518519</v>
       </c>
       <c r="C70" s="2">
-        <v>36557.50048761574</v>
+        <v>36557.500659143516</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>292</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -2992,30 +3010,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="2">
-        <v>33.500490393518518</v>
-      </c>
-      <c r="C71" s="2">
-        <v>36557.500490393519</v>
+        <v>80</v>
+      </c>
+      <c r="B71" s="3">
+        <v>33.501103125</v>
+      </c>
+      <c r="C71" s="3">
+        <v>33.501103125</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3024,30 +3042,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="2">
-        <v>33.500491319444443</v>
-      </c>
-      <c r="C72" s="2">
-        <v>36557.500491319443</v>
+        <v>80</v>
+      </c>
+      <c r="B72" s="3">
+        <v>33.501117245370374</v>
+      </c>
+      <c r="C72" s="3">
+        <v>33.501117245370374</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3056,30 +3074,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="2">
-        <v>33.50054479166667</v>
-      </c>
-      <c r="C73" s="2">
-        <v>36557.50054479167</v>
+        <v>80</v>
+      </c>
+      <c r="B73" s="3">
+        <v>33.501156250000001</v>
+      </c>
+      <c r="C73" s="3">
+        <v>33.501156250000001</v>
       </c>
       <c r="D73">
         <v>9</v>
       </c>
       <c r="E73">
-        <v>123</v>
+        <v>455</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3088,30 +3106,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="2">
-        <v>33.500545023148149</v>
-      </c>
-      <c r="C74" s="2">
-        <v>36557.500545023147</v>
+        <v>80</v>
+      </c>
+      <c r="B74" s="3">
+        <v>33.501187847222219</v>
+      </c>
+      <c r="C74" s="3">
+        <v>33.501187847222219</v>
       </c>
       <c r="D74">
         <v>9</v>
       </c>
       <c r="E74">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3120,30 +3138,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="2">
-        <v>33.500569212962965</v>
-      </c>
-      <c r="C75" s="2">
-        <v>36557.500569212963</v>
+        <v>80</v>
+      </c>
+      <c r="B75" s="3">
+        <v>33.501195601851855</v>
+      </c>
+      <c r="C75" s="3">
+        <v>33.501195601851855</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3152,30 +3170,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2">
-        <v>33.500570138888889</v>
-      </c>
-      <c r="C76" s="2">
-        <v>36557.500570138887</v>
+        <v>80</v>
+      </c>
+      <c r="B76" s="3">
+        <v>33.501196990740738</v>
+      </c>
+      <c r="C76" s="3">
+        <v>33.501196990740738</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>69</v>
+        <v>389</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3184,30 +3202,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>33.500609490740743</v>
-      </c>
-      <c r="C77" s="2">
-        <v>36557.500609490744</v>
+        <v>80</v>
+      </c>
+      <c r="B77" s="3">
+        <v>33.5012099537037</v>
+      </c>
+      <c r="C77" s="3">
+        <v>33.5012099537037</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3216,30 +3234,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="3">
-        <v>33.501071990740741</v>
-      </c>
-      <c r="C78" s="3">
-        <v>33.501071990740741</v>
+        <v>81</v>
+      </c>
+      <c r="B78" s="2">
+        <v>33.500426851851849</v>
+      </c>
+      <c r="C78" s="2">
+        <v>36557.500426851853</v>
       </c>
       <c r="D78">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3248,30 +3266,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="3">
-        <v>33.501254976851854</v>
-      </c>
-      <c r="C79" s="3">
-        <v>33.501254976851854</v>
+        <v>81</v>
+      </c>
+      <c r="B79" s="2">
+        <v>33.50047546296296</v>
+      </c>
+      <c r="C79" s="2">
+        <v>36557.500475462963</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3280,30 +3298,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="3">
-        <v>33.501453009259258</v>
-      </c>
-      <c r="C80" s="3">
-        <v>33.501453009259258</v>
+        <v>81</v>
+      </c>
+      <c r="B80" s="2">
+        <v>33.500487615740738</v>
+      </c>
+      <c r="C80" s="2">
+        <v>36557.50048761574</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3312,30 +3330,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="3">
-        <v>33.500929861111111</v>
-      </c>
-      <c r="C81" s="3">
-        <v>33.500929861111111</v>
+        <v>81</v>
+      </c>
+      <c r="B81" s="2">
+        <v>33.500490393518518</v>
+      </c>
+      <c r="C81" s="2">
+        <v>36557.500490393519</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>456</v>
+        <v>283</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3344,30 +3362,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="3">
-        <v>33.501000115740737</v>
-      </c>
-      <c r="C82" s="3">
-        <v>33.501000115740737</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.500491319444443</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36557.500491319443</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>449</v>
+        <v>280</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3376,30 +3394,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" s="3">
-        <v>33.501011689814817</v>
-      </c>
-      <c r="C83" s="3">
-        <v>33.501011689814817</v>
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>33.50054479166667</v>
+      </c>
+      <c r="C83" s="2">
+        <v>36557.50054479167</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83">
-        <v>425</v>
+        <v>123</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3408,30 +3426,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="3">
-        <v>33.501023842592595</v>
-      </c>
-      <c r="C84" s="3">
-        <v>33.501023842592595</v>
+        <v>81</v>
+      </c>
+      <c r="B84" s="2">
+        <v>33.500545023148149</v>
+      </c>
+      <c r="C84" s="2">
+        <v>36557.500545023147</v>
       </c>
       <c r="D84">
         <v>9</v>
       </c>
       <c r="E84">
-        <v>401</v>
+        <v>123</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3440,30 +3458,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" s="3">
-        <v>33.50104560185185</v>
-      </c>
-      <c r="C85" s="3">
-        <v>33.50104560185185</v>
+        <v>81</v>
+      </c>
+      <c r="B85" s="2">
+        <v>33.500569212962965</v>
+      </c>
+      <c r="C85" s="2">
+        <v>36557.500569212963</v>
       </c>
       <c r="D85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3472,30 +3490,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="3">
-        <v>33.501158449074076</v>
-      </c>
-      <c r="C86" s="3">
-        <v>33.501158449074076</v>
+        <v>81</v>
+      </c>
+      <c r="B86" s="2">
+        <v>33.500570138888889</v>
+      </c>
+      <c r="C86" s="2">
+        <v>36557.500570138887</v>
       </c>
       <c r="D86">
         <v>8</v>
       </c>
       <c r="E86">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3504,30 +3522,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="3">
-        <v>33.501176504629626</v>
-      </c>
-      <c r="C87" s="3">
-        <v>33.501176504629626</v>
+        <v>81</v>
+      </c>
+      <c r="B87" s="2">
+        <v>33.500609490740743</v>
+      </c>
+      <c r="C87" s="2">
+        <v>36557.500609490744</v>
       </c>
       <c r="D87">
         <v>8</v>
       </c>
       <c r="E87">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3536,30 +3554,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="3">
+        <v>33.501071990740741</v>
+      </c>
+      <c r="C88" s="3">
+        <v>33.501071990740741</v>
+      </c>
+      <c r="D88">
         <v>10</v>
       </c>
-      <c r="B88" s="2">
-        <v>33.500416782407406</v>
-      </c>
-      <c r="C88" s="2">
-        <v>36557.500416782408</v>
-      </c>
-      <c r="D88">
-        <v>9</v>
-      </c>
       <c r="E88">
-        <v>648</v>
+        <v>208</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3568,30 +3586,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="2">
-        <v>36557.500421180557</v>
+        <v>82</v>
+      </c>
+      <c r="B89" s="3">
+        <v>33.501254976851854</v>
+      </c>
+      <c r="C89" s="3">
+        <v>33.501254976851854</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89">
-        <v>630</v>
+        <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3600,30 +3618,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="2">
-        <v>33.50042337962963</v>
-      </c>
-      <c r="C90" s="2">
-        <v>36557.500423379628</v>
+        <v>82</v>
+      </c>
+      <c r="B90" s="3">
+        <v>33.501453009259258</v>
+      </c>
+      <c r="C90" s="3">
+        <v>33.501453009259258</v>
       </c>
       <c r="D90">
         <v>9</v>
       </c>
       <c r="E90">
-        <v>620</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3632,30 +3650,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="3">
+        <v>33.500929861111111</v>
+      </c>
+      <c r="C91" s="3">
+        <v>33.500929861111111</v>
+      </c>
+      <c r="D91">
         <v>10</v>
       </c>
-      <c r="B91" s="2">
-        <v>33.50042511574074</v>
-      </c>
-      <c r="C91" s="2">
-        <v>36557.500425115744</v>
-      </c>
-      <c r="D91">
-        <v>9</v>
-      </c>
       <c r="E91">
-        <v>613</v>
+        <v>456</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3664,30 +3682,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="2">
-        <v>33.500430439814814</v>
-      </c>
-      <c r="C92" s="2">
-        <v>36557.500430439817</v>
+        <v>83</v>
+      </c>
+      <c r="B92" s="3">
+        <v>33.501000115740737</v>
+      </c>
+      <c r="C92" s="3">
+        <v>33.501000115740737</v>
       </c>
       <c r="D92">
         <v>9</v>
       </c>
       <c r="E92">
-        <v>590</v>
+        <v>449</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3696,30 +3714,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="2">
-        <v>33.500436574074072</v>
-      </c>
-      <c r="C93" s="2">
-        <v>36557.500436574075</v>
+        <v>83</v>
+      </c>
+      <c r="B93" s="3">
+        <v>33.501011689814817</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33.501011689814817</v>
       </c>
       <c r="D93">
         <v>9</v>
       </c>
       <c r="E93">
-        <v>565</v>
+        <v>425</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3728,30 +3746,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="2">
-        <v>33.500480324074076</v>
-      </c>
-      <c r="C94" s="2">
-        <v>36557.500480324074</v>
+        <v>83</v>
+      </c>
+      <c r="B94" s="3">
+        <v>33.501023842592595</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33.501023842592595</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3760,30 +3778,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" s="2">
-        <v>33.500500578703701</v>
-      </c>
-      <c r="C95" s="2">
-        <v>36557.500500578702</v>
+        <v>83</v>
+      </c>
+      <c r="B95" s="3">
+        <v>33.50104560185185</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33.50104560185185</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3792,30 +3810,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="2">
-        <v>33.500515509259259</v>
-      </c>
-      <c r="C96" s="2">
-        <v>36557.500515509259</v>
+        <v>83</v>
+      </c>
+      <c r="B96" s="3">
+        <v>33.501158449074076</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33.501158449074076</v>
       </c>
       <c r="D96">
         <v>8</v>
       </c>
       <c r="E96">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3824,30 +3842,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" s="2">
-        <v>33.500521759259257</v>
-      </c>
-      <c r="C97" s="2">
-        <v>36557.500521759262</v>
+        <v>83</v>
+      </c>
+      <c r="B97" s="3">
+        <v>33.501176504629626</v>
+      </c>
+      <c r="C97" s="3">
+        <v>33.501176504629626</v>
       </c>
       <c r="D97">
         <v>8</v>
       </c>
       <c r="E97">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3856,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3864,22 +3882,22 @@
         <v>10</v>
       </c>
       <c r="B98" s="2">
-        <v>33.500555902777776</v>
+        <v>33.500416782407406</v>
       </c>
       <c r="C98" s="2">
-        <v>36557.500555902778</v>
+        <v>36557.500416782408</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E98">
-        <v>129</v>
+        <v>648</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3888,30 +3906,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="2">
-        <v>33.500588657407405</v>
+      <c r="B99" t="s">
+        <v>86</v>
       </c>
       <c r="C99" s="2">
-        <v>36557.500588657407</v>
+        <v>36557.500421180557</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>41</v>
+        <v>630</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3920,30 +3938,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" s="3">
-        <v>33.500947800925928</v>
-      </c>
-      <c r="C100" s="3">
-        <v>33.500947800925928</v>
+        <v>10</v>
+      </c>
+      <c r="B100" s="2">
+        <v>33.50042337962963</v>
+      </c>
+      <c r="C100" s="2">
+        <v>36557.500423379628</v>
       </c>
       <c r="D100">
         <v>9</v>
       </c>
       <c r="E100">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3952,30 +3970,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="3">
-        <v>33.500960416666665</v>
+        <v>10</v>
+      </c>
+      <c r="B101" s="2">
+        <v>33.50042511574074</v>
+      </c>
+      <c r="C101" s="2">
+        <v>36557.500425115744</v>
       </c>
       <c r="D101">
         <v>9</v>
       </c>
       <c r="E101">
-        <v>528</v>
+        <v>613</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -3984,30 +4002,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="3">
-        <v>33.500991666666664</v>
-      </c>
-      <c r="C102" s="3">
-        <v>33.500991666666664</v>
+        <v>10</v>
+      </c>
+      <c r="B102" s="2">
+        <v>33.500430439814814</v>
+      </c>
+      <c r="C102" s="2">
+        <v>36557.500430439817</v>
       </c>
       <c r="D102">
         <v>9</v>
       </c>
       <c r="E102">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4016,30 +4034,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="3">
-        <v>33.501017592592589</v>
-      </c>
-      <c r="C103" s="3">
-        <v>33.501017592592589</v>
+        <v>10</v>
+      </c>
+      <c r="B103" s="2">
+        <v>33.500436574074072</v>
+      </c>
+      <c r="C103" s="2">
+        <v>36557.500436574075</v>
       </c>
       <c r="D103">
         <v>9</v>
       </c>
       <c r="E103">
-        <v>413</v>
+        <v>565</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4048,30 +4066,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" s="3">
-        <v>33.501032870370373</v>
-      </c>
-      <c r="C104" s="3">
-        <v>33.501032870370373</v>
+        <v>10</v>
+      </c>
+      <c r="B104" s="2">
+        <v>33.500480324074076</v>
+      </c>
+      <c r="C104" s="2">
+        <v>36557.500480324074</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4080,30 +4098,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="3">
-        <v>33.50107060185185</v>
-      </c>
-      <c r="C105" s="3">
-        <v>33.50107060185185</v>
+        <v>10</v>
+      </c>
+      <c r="B105" s="2">
+        <v>33.500500578703701</v>
+      </c>
+      <c r="C105" s="2">
+        <v>36557.500500578702</v>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G105" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4112,30 +4130,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>46</v>
-      </c>
-      <c r="B106" s="3">
-        <v>33.501098726851851</v>
-      </c>
-      <c r="C106" s="3">
-        <v>33.501098726851851</v>
+        <v>10</v>
+      </c>
+      <c r="B106" s="2">
+        <v>33.500515509259259</v>
+      </c>
+      <c r="C106" s="2">
+        <v>36557.500515509259</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4144,30 +4162,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" s="3">
-        <v>33.501188425925925</v>
-      </c>
-      <c r="C107" s="3">
-        <v>33.501188425925925</v>
+        <v>10</v>
+      </c>
+      <c r="B107" s="2">
+        <v>33.500521759259257</v>
+      </c>
+      <c r="C107" s="2">
+        <v>36557.500521759262</v>
       </c>
       <c r="D107">
         <v>8</v>
       </c>
       <c r="E107">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4176,30 +4194,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" s="3">
-        <v>33.501251736111108</v>
-      </c>
-      <c r="C108" s="3">
-        <v>33.501251736111108</v>
+        <v>10</v>
+      </c>
+      <c r="B108" s="2">
+        <v>33.500555902777776</v>
+      </c>
+      <c r="C108" s="2">
+        <v>36557.500555902778</v>
       </c>
       <c r="D108">
         <v>7</v>
       </c>
       <c r="E108">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4208,30 +4226,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109" s="3">
-        <v>33.502219328703703</v>
-      </c>
-      <c r="C109" s="3">
-        <v>33.502219328703703</v>
+        <v>10</v>
+      </c>
+      <c r="B109" s="2">
+        <v>33.500588657407405</v>
+      </c>
+      <c r="C109" s="2">
+        <v>36557.500588657407</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4240,30 +4258,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B110" s="3">
-        <v>33.502642824074073</v>
+        <v>33.500947800925928</v>
       </c>
       <c r="C110" s="3">
-        <v>33.502642824074073</v>
+        <v>33.500947800925928</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>78</v>
+        <v>554</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4272,30 +4290,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111" s="2">
-        <v>33.500486458333334</v>
-      </c>
-      <c r="C111" s="2">
-        <v>36557.500486458332</v>
+        <v>52</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3">
+        <v>33.500960416666665</v>
       </c>
       <c r="D111">
         <v>9</v>
       </c>
       <c r="E111">
-        <v>638</v>
+        <v>528</v>
       </c>
       <c r="F111" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4304,30 +4322,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>59</v>
-      </c>
-      <c r="B112" s="2">
-        <v>33.500497337962962</v>
-      </c>
-      <c r="C112" s="2">
-        <v>36557.500497337962</v>
+        <v>52</v>
+      </c>
+      <c r="B112" s="3">
+        <v>33.500991666666664</v>
+      </c>
+      <c r="C112" s="3">
+        <v>33.500991666666664</v>
       </c>
       <c r="D112">
         <v>9</v>
       </c>
       <c r="E112">
-        <v>594</v>
+        <v>464</v>
       </c>
       <c r="F112" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4336,30 +4354,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>59</v>
-      </c>
-      <c r="B113" s="2">
-        <v>33.500509375</v>
-      </c>
-      <c r="C113" s="2">
-        <v>36557.500509375001</v>
+        <v>52</v>
+      </c>
+      <c r="B113" s="3">
+        <v>33.501017592592589</v>
+      </c>
+      <c r="C113" s="3">
+        <v>33.501017592592589</v>
       </c>
       <c r="D113">
         <v>9</v>
       </c>
       <c r="E113">
-        <v>546</v>
+        <v>413</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4368,30 +4386,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>59</v>
-      </c>
-      <c r="B114" s="2">
-        <v>33.500511574074075</v>
-      </c>
-      <c r="C114" s="2">
-        <v>36557.500511574071</v>
+        <v>52</v>
+      </c>
+      <c r="B114" s="3">
+        <v>33.501032870370373</v>
+      </c>
+      <c r="C114" s="3">
+        <v>33.501032870370373</v>
       </c>
       <c r="D114">
         <v>9</v>
       </c>
       <c r="E114">
-        <v>537</v>
+        <v>384</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4400,30 +4418,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>59</v>
-      </c>
-      <c r="B115" s="2">
-        <v>33.500512962962965</v>
-      </c>
-      <c r="C115" s="2">
-        <v>36557.500512962964</v>
+        <v>52</v>
+      </c>
+      <c r="B115" s="3">
+        <v>33.50107060185185</v>
+      </c>
+      <c r="C115" s="3">
+        <v>33.50107060185185</v>
       </c>
       <c r="D115">
         <v>9</v>
       </c>
       <c r="E115">
-        <v>532</v>
+        <v>316</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G115" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4432,30 +4450,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>59</v>
-      </c>
-      <c r="B116" s="2">
-        <v>33.500519444444443</v>
-      </c>
-      <c r="C116" s="2">
-        <v>36557.500519444446</v>
+        <v>52</v>
+      </c>
+      <c r="B116" s="3">
+        <v>33.501098726851851</v>
+      </c>
+      <c r="C116" s="3">
+        <v>33.501098726851851</v>
       </c>
       <c r="D116">
         <v>9</v>
       </c>
       <c r="E116">
-        <v>507</v>
+        <v>268</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G116" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4464,30 +4482,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B117" s="2">
-        <v>33.500553472222222</v>
-      </c>
-      <c r="C117" s="2">
-        <v>36557.500553472222</v>
+        <v>52</v>
+      </c>
+      <c r="B117" s="3">
+        <v>33.501188425925925</v>
+      </c>
+      <c r="C117" s="3">
+        <v>33.501188425925925</v>
       </c>
       <c r="D117">
         <v>8</v>
       </c>
       <c r="E117">
-        <v>383</v>
+        <v>134</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4496,30 +4514,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>59</v>
-      </c>
-      <c r="B118" s="2">
-        <v>33.500576273148148</v>
-      </c>
-      <c r="C118" s="2">
-        <v>36557.500576273145</v>
+        <v>52</v>
+      </c>
+      <c r="B118" s="3">
+        <v>33.501251736111108</v>
+      </c>
+      <c r="C118" s="3">
+        <v>33.501251736111108</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4528,30 +4546,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>59</v>
-      </c>
-      <c r="B119" s="2">
-        <v>33.500619560185186</v>
-      </c>
-      <c r="C119" s="2">
-        <v>36557.500619560182</v>
+        <v>64</v>
+      </c>
+      <c r="B119" s="3">
+        <v>33.502219328703703</v>
+      </c>
+      <c r="C119" s="3">
+        <v>33.502219328703703</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4560,30 +4578,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>59</v>
-      </c>
-      <c r="B120" s="2">
-        <v>33.500633217592593</v>
-      </c>
-      <c r="C120" s="2">
-        <v>36557.500633217591</v>
+        <v>64</v>
+      </c>
+      <c r="B120" s="3">
+        <v>33.502642824074073</v>
+      </c>
+      <c r="C120" s="3">
+        <v>33.502642824074073</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4592,30 +4610,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>71</v>
-      </c>
-      <c r="B121" s="3">
-        <v>33.501099768518522</v>
-      </c>
-      <c r="C121" s="3">
-        <v>33.501099768518522</v>
+        <v>65</v>
+      </c>
+      <c r="B121" s="2">
+        <v>33.500486458333334</v>
+      </c>
+      <c r="C121" s="2">
+        <v>36557.500486458332</v>
       </c>
       <c r="D121">
         <v>9</v>
       </c>
       <c r="E121">
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G121" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4624,30 +4642,30 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>71</v>
-      </c>
-      <c r="B122" s="3">
-        <v>33.501138310185183</v>
-      </c>
-      <c r="C122" s="3">
-        <v>33.501138310185183</v>
+        <v>65</v>
+      </c>
+      <c r="B122" s="2">
+        <v>33.500497337962962</v>
+      </c>
+      <c r="C122" s="2">
+        <v>36557.500497337962</v>
       </c>
       <c r="D122">
         <v>9</v>
       </c>
       <c r="E122">
-        <v>490</v>
+        <v>594</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4656,30 +4674,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>71</v>
-      </c>
-      <c r="B123" s="3">
-        <v>33.501144097222223</v>
-      </c>
-      <c r="C123" s="3">
-        <v>33.501144097222223</v>
+        <v>65</v>
+      </c>
+      <c r="B123" s="2">
+        <v>33.500509375</v>
+      </c>
+      <c r="C123" s="2">
+        <v>36557.500509375001</v>
       </c>
       <c r="D123">
         <v>9</v>
       </c>
       <c r="E123">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4688,30 +4706,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>71</v>
-      </c>
-      <c r="B124" s="3">
-        <v>33.501145023148148</v>
-      </c>
-      <c r="C124" s="3">
-        <v>33.501145023148148</v>
+        <v>65</v>
+      </c>
+      <c r="B124" s="2">
+        <v>33.500511574074075</v>
+      </c>
+      <c r="C124" s="2">
+        <v>36557.500511574071</v>
       </c>
       <c r="D124">
         <v>9</v>
       </c>
       <c r="E124">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="F124" t="s">
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4720,30 +4738,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>71</v>
-      </c>
-      <c r="B125" s="3">
-        <v>33.50115509259259</v>
-      </c>
-      <c r="C125" s="3">
-        <v>33.50115509259259</v>
+        <v>65</v>
+      </c>
+      <c r="B125" s="2">
+        <v>33.500512962962965</v>
+      </c>
+      <c r="C125" s="2">
+        <v>36557.500512962964</v>
       </c>
       <c r="D125">
         <v>9</v>
       </c>
       <c r="E125">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="F125" t="s">
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4752,30 +4770,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>71</v>
-      </c>
-      <c r="B126" s="3">
-        <v>33.501206365740742</v>
-      </c>
-      <c r="C126" s="3">
-        <v>33.501206365740742</v>
+        <v>65</v>
+      </c>
+      <c r="B126" s="2">
+        <v>33.500519444444443</v>
+      </c>
+      <c r="C126" s="2">
+        <v>36557.500519444446</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E126">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4784,30 +4802,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>71</v>
-      </c>
-      <c r="B127" s="3">
-        <v>33.501286574074072</v>
-      </c>
-      <c r="C127" s="3">
-        <v>33.501286574074072</v>
+        <v>65</v>
+      </c>
+      <c r="B127" s="2">
+        <v>33.500553472222222</v>
+      </c>
+      <c r="C127" s="2">
+        <v>36557.500553472222</v>
       </c>
       <c r="D127">
         <v>8</v>
       </c>
       <c r="E127">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4816,30 +4834,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>71</v>
-      </c>
-      <c r="B128" s="3">
-        <v>33.501290740740743</v>
-      </c>
-      <c r="C128" s="3">
-        <v>33.501290740740743</v>
+        <v>65</v>
+      </c>
+      <c r="B128" s="2">
+        <v>33.500576273148148</v>
+      </c>
+      <c r="C128" s="2">
+        <v>36557.500576273145</v>
       </c>
       <c r="D128">
         <v>8</v>
       </c>
       <c r="E128">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G128" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4848,30 +4866,30 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B129" s="2">
-        <v>33.500586574074077</v>
+        <v>33.500619560185186</v>
       </c>
       <c r="C129" s="2">
-        <v>36557.500586574075</v>
+        <v>36557.500619560182</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>531</v>
+        <v>178</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G129" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -4880,30 +4898,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B130" s="2">
-        <v>33.500603819444443</v>
+        <v>33.500633217592593</v>
       </c>
       <c r="C130" s="2">
-        <v>36557.500603819448</v>
+        <v>36557.500633217591</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>474</v>
+        <v>142</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -4912,30 +4930,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>73</v>
-      </c>
-      <c r="B131" s="2">
-        <v>33.50062060185185</v>
-      </c>
-      <c r="C131" s="2">
-        <v>36557.500620601852</v>
+        <v>77</v>
+      </c>
+      <c r="B131" s="3">
+        <v>33.501099768518522</v>
+      </c>
+      <c r="C131" s="3">
+        <v>33.501099768518522</v>
       </c>
       <c r="D131">
         <v>9</v>
       </c>
       <c r="E131">
-        <v>421</v>
+        <v>558</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G131" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -4944,30 +4962,30 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>73</v>
-      </c>
-      <c r="B132" s="2">
-        <v>33.500644444444447</v>
-      </c>
-      <c r="C132" s="2">
-        <v>36557.500644444444</v>
+        <v>77</v>
+      </c>
+      <c r="B132" s="3">
+        <v>33.501138310185183</v>
+      </c>
+      <c r="C132" s="3">
+        <v>33.501138310185183</v>
       </c>
       <c r="D132">
         <v>9</v>
       </c>
       <c r="E132">
-        <v>348</v>
+        <v>490</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -4976,30 +4994,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>73</v>
-      </c>
-      <c r="B133" s="2">
-        <v>33.50065428240741</v>
-      </c>
-      <c r="C133" s="2">
-        <v>36557.500654282405</v>
+        <v>77</v>
+      </c>
+      <c r="B133" s="3">
+        <v>33.501144097222223</v>
+      </c>
+      <c r="C133" s="3">
+        <v>33.501144097222223</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E133">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5008,30 +5026,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>73</v>
-      </c>
-      <c r="B134" s="2">
-        <v>33.500677430555555</v>
-      </c>
-      <c r="C134" s="2">
-        <v>36557.500677430558</v>
+        <v>77</v>
+      </c>
+      <c r="B134" s="3">
+        <v>33.501145023148148</v>
+      </c>
+      <c r="C134" s="3">
+        <v>33.501145023148148</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>256</v>
+        <v>478</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5040,30 +5058,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>73</v>
-      </c>
-      <c r="B135" s="2">
-        <v>33.500684606481478</v>
-      </c>
-      <c r="C135" s="2">
-        <v>36557.500684606479</v>
+        <v>77</v>
+      </c>
+      <c r="B135" s="3">
+        <v>33.50115509259259</v>
+      </c>
+      <c r="C135" s="3">
+        <v>33.50115509259259</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>237</v>
+        <v>461</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5072,30 +5090,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B136" s="2">
-        <v>33.50068553240741</v>
-      </c>
-      <c r="C136" s="2">
-        <v>36557.50068553241</v>
+        <v>77</v>
+      </c>
+      <c r="B136" s="3">
+        <v>33.501206365740742</v>
+      </c>
+      <c r="C136" s="3">
+        <v>33.501206365740742</v>
       </c>
       <c r="D136">
         <v>8</v>
       </c>
       <c r="E136">
-        <v>235</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G136" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5104,30 +5122,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B137" s="3">
-        <v>33.500745254629628</v>
+        <v>33.501286574074072</v>
       </c>
       <c r="C137" s="3">
-        <v>33.500745254629628</v>
+        <v>33.501286574074072</v>
       </c>
       <c r="D137">
         <v>8</v>
       </c>
       <c r="E137">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G137" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5136,30 +5154,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B138" s="3">
-        <v>33.500821296296294</v>
+        <v>33.501290740740743</v>
       </c>
       <c r="C138" s="3">
-        <v>33.500821296296294</v>
+        <v>33.501290740740743</v>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G138" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5168,30 +5186,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139" s="3">
-        <v>33.500891203703702</v>
-      </c>
-      <c r="C139" s="3">
-        <v>33.500891203703702</v>
+        <v>79</v>
+      </c>
+      <c r="B139" s="2">
+        <v>33.500586574074077</v>
+      </c>
+      <c r="C139" s="2">
+        <v>36557.500586574075</v>
       </c>
       <c r="D139">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>531</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5200,30 +5218,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="3">
-        <v>33.50133275462963</v>
-      </c>
-      <c r="C140" s="3">
-        <v>33.50133275462963</v>
+        <v>79</v>
+      </c>
+      <c r="B140" s="2">
+        <v>33.500603819444443</v>
+      </c>
+      <c r="C140" s="2">
+        <v>36557.500603819448</v>
       </c>
       <c r="D140">
         <v>9</v>
       </c>
       <c r="E140">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="F140" t="s">
         <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5232,30 +5250,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141" s="3">
-        <v>33.501349074074071</v>
-      </c>
-      <c r="C141" s="3">
-        <v>33.501349074074071</v>
+        <v>79</v>
+      </c>
+      <c r="B141" s="2">
+        <v>33.50062060185185</v>
+      </c>
+      <c r="C141" s="2">
+        <v>36557.500620601852</v>
       </c>
       <c r="D141">
         <v>9</v>
       </c>
       <c r="E141">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G141" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5264,27 +5282,27 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142" s="3">
-        <v>33.501372337962962</v>
-      </c>
-      <c r="C142" s="3">
-        <v>33.501372337962962</v>
+        <v>79</v>
+      </c>
+      <c r="B142" s="2">
+        <v>33.500644444444447</v>
+      </c>
+      <c r="C142" s="2">
+        <v>36557.500644444444</v>
       </c>
       <c r="D142">
         <v>9</v>
       </c>
       <c r="E142">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G142" t="s">
         <v>84</v>
@@ -5296,30 +5314,30 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>74</v>
-      </c>
-      <c r="B143" s="3">
-        <v>33.501372685185189</v>
-      </c>
-      <c r="C143" s="3">
-        <v>33.501372685185189</v>
+        <v>79</v>
+      </c>
+      <c r="B143" s="2">
+        <v>33.50065428240741</v>
+      </c>
+      <c r="C143" s="2">
+        <v>36557.500654282405</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G143" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5328,30 +5346,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B144" s="2">
-        <v>33.500475925925926</v>
+        <v>33.500677430555555</v>
       </c>
       <c r="C144" s="2">
-        <v>36557.500475925925</v>
+        <v>36557.500677430558</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>576</v>
+        <v>256</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G144" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5360,30 +5378,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B145" s="2">
-        <v>33.500538425925924</v>
+        <v>33.500684606481478</v>
       </c>
       <c r="C145" s="2">
-        <v>36557.500538425928</v>
+        <v>36557.500684606479</v>
       </c>
       <c r="D145">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5392,30 +5410,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B146" s="2">
-        <v>33.500578240740744</v>
+        <v>33.50068553240741</v>
       </c>
       <c r="C146" s="2">
-        <v>36557.500578240739</v>
+        <v>36557.50068553241</v>
       </c>
       <c r="D146">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5424,30 +5442,30 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>75</v>
-      </c>
-      <c r="B147" s="2">
-        <v>33.500587152777776</v>
-      </c>
-      <c r="C147" s="2">
-        <v>36557.500587152776</v>
+        <v>79</v>
+      </c>
+      <c r="B147" s="3">
+        <v>33.500745254629628</v>
+      </c>
+      <c r="C147" s="3">
+        <v>33.500745254629628</v>
       </c>
       <c r="D147">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5456,30 +5474,30 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>75</v>
-      </c>
-      <c r="B148" s="2">
-        <v>33.500593402777781</v>
-      </c>
-      <c r="C148" s="2">
-        <v>36557.500593402779</v>
+        <v>79</v>
+      </c>
+      <c r="B148" s="3">
+        <v>33.500821296296294</v>
+      </c>
+      <c r="C148" s="3">
+        <v>33.500821296296294</v>
       </c>
       <c r="D148">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -5488,30 +5506,30 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B149" s="2">
-        <v>33.500622337962966</v>
-      </c>
-      <c r="C149" s="2">
-        <v>36557.500622337961</v>
+        <v>79</v>
+      </c>
+      <c r="B149" s="3">
+        <v>33.500891203703702</v>
+      </c>
+      <c r="C149" s="3">
+        <v>33.500891203703702</v>
       </c>
       <c r="D149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5520,30 +5538,30 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>75</v>
-      </c>
-      <c r="B150" s="2">
-        <v>33.500682175925924</v>
-      </c>
-      <c r="C150" s="2">
-        <v>36557.500682175923</v>
+        <v>80</v>
+      </c>
+      <c r="B150" s="3">
+        <v>33.50133275462963</v>
+      </c>
+      <c r="C150" s="3">
+        <v>33.50133275462963</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>24</v>
+        <v>457</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5552,27 +5570,27 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" s="2">
-        <v>33.5006869212963</v>
-      </c>
-      <c r="C151" s="2">
-        <v>36557.500686921296</v>
+        <v>80</v>
+      </c>
+      <c r="B151" s="3">
+        <v>33.501349074074071</v>
+      </c>
+      <c r="C151" s="3">
+        <v>33.501349074074071</v>
       </c>
       <c r="D151">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>19</v>
+        <v>434</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G151" t="s">
         <v>92</v>
@@ -5589,34 +5607,354 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B152" s="3">
+        <v>33.501372337962962</v>
+      </c>
+      <c r="C152" s="3">
+        <v>33.501372337962962</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>401</v>
+      </c>
+      <c r="F152" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" t="s">
+        <v>90</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" s="3">
+        <v>33.501372685185189</v>
+      </c>
+      <c r="C153" s="3">
+        <v>33.501372685185189</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+      <c r="E153">
+        <v>401</v>
+      </c>
+      <c r="F153" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s">
+        <v>88</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>81</v>
+      </c>
+      <c r="B154" s="2">
+        <v>33.500475925925926</v>
+      </c>
+      <c r="C154" s="2">
+        <v>36557.500475925925</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>576</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>108</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" s="2">
+        <v>33.500538425925924</v>
+      </c>
+      <c r="C155" s="2">
+        <v>36557.500538425928</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>346</v>
+      </c>
+      <c r="F155" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" t="s">
+        <v>92</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>81</v>
+      </c>
+      <c r="B156" s="2">
+        <v>33.500578240740744</v>
+      </c>
+      <c r="C156" s="2">
+        <v>36557.500578240739</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="E156">
+        <v>226</v>
+      </c>
+      <c r="F156" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>81</v>
+      </c>
+      <c r="B157" s="2">
+        <v>33.500587152777776</v>
+      </c>
+      <c r="C157" s="2">
+        <v>36557.500587152776</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="E157">
+        <v>203</v>
+      </c>
+      <c r="F157" t="s">
+        <v>28</v>
+      </c>
+      <c r="G157" t="s">
+        <v>94</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>81</v>
+      </c>
+      <c r="B158" s="2">
+        <v>33.500593402777781</v>
+      </c>
+      <c r="C158" s="2">
+        <v>36557.500593402779</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>187</v>
+      </c>
+      <c r="F158" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" t="s">
+        <v>84</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159" s="2">
+        <v>33.500622337962966</v>
+      </c>
+      <c r="C159" s="2">
+        <v>36557.500622337961</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="E159">
+        <v>120</v>
+      </c>
+      <c r="F159" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" t="s">
+        <v>96</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" s="2">
+        <v>33.500682175925924</v>
+      </c>
+      <c r="C160" s="2">
+        <v>36557.500682175923</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+      <c r="E160">
+        <v>24</v>
+      </c>
+      <c r="F160" t="s">
+        <v>35</v>
+      </c>
+      <c r="G160" t="s">
+        <v>102</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161" s="2">
+        <v>33.5006869212963</v>
+      </c>
+      <c r="C161" s="2">
+        <v>36557.500686921296</v>
+      </c>
+      <c r="D161">
+        <v>8</v>
+      </c>
+      <c r="E161">
+        <v>19</v>
+      </c>
+      <c r="F161" t="s">
+        <v>35</v>
+      </c>
+      <c r="G161" t="s">
+        <v>98</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" s="3">
         <v>33.501350115740742</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C162" s="3">
         <v>33.501350115740742</v>
       </c>
-      <c r="D152">
-        <v>9</v>
-      </c>
-      <c r="E152">
+      <c r="D162">
+        <v>9</v>
+      </c>
+      <c r="E162">
         <v>210</v>
       </c>
-      <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s">
-        <v>102</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" t="s">
-        <v>116</v>
+      <c r="F162" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" t="s">
+        <v>108</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Hunter Keane.xlsx
+++ b/USASwimming/Times For Hunter Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="134">
   <si>
     <t>Event</t>
   </si>
@@ -84,6 +84,12 @@
     <t>11/9/2019</t>
   </si>
   <si>
+    <t>2020 CT Wilton Wahoos Winter Qual</t>
+  </si>
+  <si>
+    <t>1/17/2020</t>
+  </si>
+  <si>
     <t>2019 CT Regional Championships CDOG</t>
   </si>
   <si>
@@ -219,6 +225,21 @@
     <t>200 FR</t>
   </si>
   <si>
+    <t>2020 CT OAK Centennial Center Invit</t>
+  </si>
+  <si>
+    <t>1/5/2020</t>
+  </si>
+  <si>
+    <t>500 FR</t>
+  </si>
+  <si>
+    <t>2020 CT OAK Centennial Center Dist</t>
+  </si>
+  <si>
+    <t>1/3/2020</t>
+  </si>
+  <si>
     <t>50 BK</t>
   </si>
   <si>
@@ -240,6 +261,9 @@
     <t>1/19/2019</t>
   </si>
   <si>
+    <t>1/18/2020</t>
+  </si>
+  <si>
     <t>2018 CT Centennial Center Invitatio</t>
   </si>
   <si>
@@ -258,6 +282,9 @@
     <t>100 BK</t>
   </si>
   <si>
+    <t>1/19/2020</t>
+  </si>
+  <si>
     <t>1/6/2019</t>
   </si>
   <si>
@@ -267,6 +294,9 @@
     <t>100 BR</t>
   </si>
   <si>
+    <t>1/4/2020</t>
+  </si>
+  <si>
     <t>50 FL</t>
   </si>
   <si>
@@ -274,6 +304,9 @@
   </si>
   <si>
     <t>100 IM</t>
+  </si>
+  <si>
+    <t>200 IM</t>
   </si>
   <si>
     <t>2019 CT RYWC 10&amp;Under Kickoff</t>
@@ -751,7 +784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -906,16 +939,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.50036597222222</v>
+        <v>33.50036446759259</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500365972221</v>
+        <v>36557.500364467596</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>641</v>
+        <v>537</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -938,16 +971,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500368055555555</v>
+        <v>33.50036597222222</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500368055553</v>
+        <v>36557.500365972221</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>519</v>
+        <v>641</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -970,16 +1003,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500381365740743</v>
+        <v>33.500368055555555</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500381365739</v>
+        <v>36557.500368055553</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1002,16 +1035,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500391550925926</v>
+        <v>33.500381365740743</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500391550922</v>
+        <v>36557.500381365739</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1034,31 +1067,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500400694444444</v>
+        <v>33.500391550925926</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500400694444</v>
+        <v>36557.500391550922</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1066,19 +1099,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500406828703703</v>
+        <v>33.500400694444444</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500406828702</v>
+        <v>36557.500400694444</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1098,19 +1131,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500413657407407</v>
+        <v>33.500406828703703</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500413657406</v>
+        <v>36557.500406828702</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1130,31 +1163,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500444328703701</v>
+        <v>33.500413657407407</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.500444328703</v>
+        <v>36557.500413657406</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>287</v>
+        <v>418</v>
       </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
         <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,19 +1195,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500447453703707</v>
+        <v>33.500444328703701</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500447453705</v>
+        <v>36557.500444328703</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1194,19 +1227,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>33.500448611111111</v>
+        <v>33.500447453703707</v>
       </c>
       <c r="C14" s="2">
-        <v>36557.500448611114</v>
+        <v>36557.500447453705</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>40</v>
@@ -1226,19 +1259,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500485300925924</v>
+        <v>33.500448611111111</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.500485300923</v>
+        <v>36557.500448611114</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>42</v>
@@ -1258,19 +1291,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>33.500492476851853</v>
+        <v>33.500485300925924</v>
       </c>
       <c r="C16" s="2">
-        <v>36557.500492476851</v>
+        <v>36557.500485300923</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>44</v>
@@ -1290,19 +1323,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>33.500517708333334</v>
+        <v>33.500492476851853</v>
       </c>
       <c r="C17" s="2">
-        <v>36557.500517708337</v>
+        <v>36557.500492476851</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1322,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>33.500517939814813</v>
+        <v>33.500517708333334</v>
       </c>
       <c r="C18" s="2">
-        <v>36557.500517939814</v>
+        <v>36557.500517708337</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1334,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
         <v>48</v>
@@ -1354,19 +1387,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>33.500530092592591</v>
+        <v>33.500517939814813</v>
       </c>
       <c r="C19" s="2">
-        <v>36557.500530092591</v>
+        <v>36557.500517939814</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
@@ -1383,57 +1416,57 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>33.500530092592591</v>
+      </c>
+      <c r="C20" s="2">
+        <v>36557.500530092591</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3">
-        <v>33.500843402777775</v>
-      </c>
-      <c r="C20" s="3">
-        <v>33.500843402777775</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>391</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
         <v>53</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3">
-        <v>33.500845370370371</v>
+        <v>33.500843402777775</v>
       </c>
       <c r="C21" s="3">
-        <v>33.500845370370371</v>
+        <v>33.500843402777775</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1442,30 +1475,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3">
-        <v>33.50088090277778</v>
+        <v>33.500845370370371</v>
       </c>
       <c r="C22" s="3">
-        <v>33.50088090277778</v>
+        <v>33.500845370370371</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>446</v>
+        <v>387</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1474,24 +1507,24 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3">
-        <v>33.500892013888887</v>
+        <v>33.50088090277778</v>
       </c>
       <c r="C23" s="3">
-        <v>33.500892013888887</v>
+        <v>33.50088090277778</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>285</v>
+        <v>446</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1506,30 +1539,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500996759259259</v>
+        <v>33.500892013888887</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500996759259259</v>
+        <v>33.500892013888887</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1538,30 +1571,30 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3">
-        <v>33.501010532407406</v>
+        <v>33.500996759259259</v>
       </c>
       <c r="C25" s="3">
-        <v>33.501010532407406</v>
+        <v>33.500996759259259</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1570,31 +1603,31 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
-        <v>33.501020601851849</v>
+        <v>33.501010532407406</v>
       </c>
       <c r="C26" s="3">
-        <v>33.501020601851849</v>
+        <v>33.501010532407406</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
       </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
       <c r="H26" t="s">
         <v>13</v>
       </c>
@@ -1602,30 +1635,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3">
-        <v>33.501068981481481</v>
+        <v>33.501020601851849</v>
       </c>
       <c r="C27" s="3">
-        <v>33.501068981481481</v>
+        <v>33.501020601851849</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1634,30 +1667,30 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3">
-        <v>33.501085185185183</v>
+        <v>33.501068981481481</v>
       </c>
       <c r="C28" s="3">
-        <v>33.501085185185183</v>
+        <v>33.501068981481481</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1666,30 +1699,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3">
-        <v>33.501126388888892</v>
+        <v>33.501085185185183</v>
       </c>
       <c r="C29" s="3">
-        <v>33.501126388888892</v>
+        <v>33.501085185185183</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1698,30 +1731,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3">
-        <v>33.50115520833333</v>
+        <v>33.501126388888892</v>
       </c>
       <c r="C30" s="3">
-        <v>33.50115520833333</v>
+        <v>33.501126388888892</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1730,30 +1763,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3">
-        <v>33.501835416666665</v>
+        <v>33.50115520833333</v>
       </c>
       <c r="C31" s="3">
-        <v>33.501835416666665</v>
+        <v>33.50115520833333</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1762,30 +1795,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3">
-        <v>33.502048842592593</v>
+        <v>33.501835416666665</v>
       </c>
       <c r="C32" s="3">
-        <v>33.502048842592593</v>
+        <v>33.501835416666665</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1794,30 +1827,30 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3">
-        <v>33.502210416666664</v>
+        <v>33.501908449074072</v>
       </c>
       <c r="C33" s="3">
-        <v>33.502210416666664</v>
+        <v>33.501908449074072</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1826,30 +1859,30 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3">
-        <v>33.502282870370372</v>
+        <v>33.502048842592593</v>
       </c>
       <c r="C34" s="3">
-        <v>33.502282870370372</v>
+        <v>33.502048842592593</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1858,30 +1891,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="2">
-        <v>33.500432407407409</v>
-      </c>
-      <c r="C35" s="2">
-        <v>36557.500432407411</v>
+        <v>66</v>
+      </c>
+      <c r="B35" s="3">
+        <v>33.502210416666664</v>
+      </c>
+      <c r="C35" s="3">
+        <v>33.502210416666664</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>607</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1890,30 +1923,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2">
-        <v>33.500432870370368</v>
-      </c>
-      <c r="C36" s="2">
-        <v>36557.500432870373</v>
+        <v>66</v>
+      </c>
+      <c r="B36" s="3">
+        <v>33.502282870370372</v>
+      </c>
+      <c r="C36" s="3">
+        <v>33.502282870370372</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1922,30 +1955,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="2">
-        <v>33.500436574074072</v>
-      </c>
-      <c r="C37" s="2">
-        <v>36557.500436574075</v>
+        <v>69</v>
+      </c>
+      <c r="B37" s="3">
+        <v>33.505023726851853</v>
+      </c>
+      <c r="C37" s="3">
+        <v>33.505023726851853</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>588</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1954,30 +1987,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2">
-        <v>33.500449305555556</v>
+        <v>33.500432407407409</v>
       </c>
       <c r="C38" s="2">
-        <v>36557.500449305553</v>
+        <v>36557.500432407411</v>
       </c>
       <c r="D38">
         <v>9</v>
       </c>
       <c r="E38">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1986,30 +2019,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2">
-        <v>33.500450810185185</v>
+        <v>33.500432870370368</v>
       </c>
       <c r="C39" s="2">
-        <v>36557.500450810185</v>
+        <v>36557.500432870373</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2018,30 +2051,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2">
-        <v>33.500462731481484</v>
+        <v>33.500436574074072</v>
       </c>
       <c r="C40" s="2">
-        <v>36557.500462731485</v>
+        <v>36557.500436574075</v>
       </c>
       <c r="D40">
         <v>9</v>
       </c>
       <c r="E40">
-        <v>473</v>
+        <v>588</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2050,30 +2083,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2">
-        <v>33.500463310185182</v>
+        <v>33.500449305555556</v>
       </c>
       <c r="C41" s="2">
-        <v>36557.500463310185</v>
+        <v>36557.500449305553</v>
       </c>
       <c r="D41">
         <v>9</v>
       </c>
       <c r="E41">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2082,30 +2115,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2">
-        <v>33.500467592592592</v>
+        <v>33.500450810185185</v>
       </c>
       <c r="C42" s="2">
-        <v>36557.500467592596</v>
+        <v>36557.500450810185</v>
       </c>
       <c r="D42">
         <v>9</v>
       </c>
       <c r="E42">
-        <v>452</v>
+        <v>524</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2114,30 +2147,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2">
-        <v>33.50050648148148</v>
+        <v>33.50045462962963</v>
       </c>
       <c r="C43" s="2">
-        <v>36557.500506481483</v>
+        <v>36557.500454629633</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2146,30 +2179,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2">
-        <v>33.500524768518517</v>
+        <v>33.500462731481484</v>
       </c>
       <c r="C44" s="2">
-        <v>36557.500524768519</v>
+        <v>36557.500462731485</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>235</v>
+        <v>473</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2178,30 +2211,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2">
-        <v>33.500525347222222</v>
+        <v>33.500463310185182</v>
       </c>
       <c r="C45" s="2">
-        <v>36557.500525347219</v>
+        <v>36557.500463310185</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>233</v>
+        <v>470</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2210,30 +2243,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2">
-        <v>33.500526273148147</v>
+        <v>33.500467592592592</v>
       </c>
       <c r="C46" s="2">
-        <v>36557.50052627315</v>
+        <v>36557.500467592596</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>229</v>
+        <v>452</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2242,30 +2275,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="B47" s="2">
+        <v>33.50050648148148</v>
       </c>
       <c r="C47" s="2">
-        <v>36557.500528935183</v>
+        <v>36557.500506481483</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
       <c r="E47">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2274,30 +2307,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2">
-        <v>33.500542013888889</v>
+        <v>33.500524768518517</v>
       </c>
       <c r="C48" s="2">
-        <v>36557.500542013891</v>
+        <v>36557.500524768519</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2306,30 +2339,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2">
-        <v>33.50056990740741</v>
+        <v>33.500525347222222</v>
       </c>
       <c r="C49" s="2">
-        <v>36557.50056990741</v>
+        <v>36557.500525347219</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2343,25 +2376,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2">
-        <v>33.50059537037037</v>
+        <v>33.500526273148147</v>
       </c>
       <c r="C50" s="2">
-        <v>36557.500595370373</v>
+        <v>36557.50052627315</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50">
+        <v>229</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
         <v>42</v>
-      </c>
-      <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>46</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2375,25 +2408,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="3">
-        <v>33.500926967592591</v>
-      </c>
-      <c r="C51" s="3">
-        <v>33.500926967592591</v>
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="2">
+        <v>36557.500528935183</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>613</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2402,30 +2435,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="3">
-        <v>33.500935532407411</v>
-      </c>
-      <c r="C52" s="3">
-        <v>33.500935532407411</v>
+        <v>72</v>
+      </c>
+      <c r="B52" s="2">
+        <v>33.500542013888889</v>
+      </c>
+      <c r="C52" s="2">
+        <v>36557.500542013891</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>458</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2434,30 +2467,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="3">
-        <v>33.500952893518516</v>
-      </c>
-      <c r="C53" s="3">
-        <v>33.500952893518516</v>
+        <v>72</v>
+      </c>
+      <c r="B53" s="2">
+        <v>33.50056990740741</v>
+      </c>
+      <c r="C53" s="2">
+        <v>36557.50056990741</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>558</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2466,30 +2499,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="3">
-        <v>33.500970138888889</v>
-      </c>
-      <c r="C54" s="3">
-        <v>33.500970138888889</v>
+        <v>72</v>
+      </c>
+      <c r="B54" s="2">
+        <v>33.50059537037037</v>
+      </c>
+      <c r="C54" s="2">
+        <v>36557.500595370373</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2498,30 +2531,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B55" s="3">
-        <v>33.500985416666666</v>
+        <v>33.500926967592591</v>
       </c>
       <c r="C55" s="3">
-        <v>33.500985416666666</v>
+        <v>33.500926967592591</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="E55">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2530,30 +2563,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B56" s="3">
-        <v>33.500987152777775</v>
+        <v>33.500935532407411</v>
       </c>
       <c r="C56" s="3">
-        <v>33.500987152777775</v>
+        <v>33.500935532407411</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2562,30 +2595,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3">
-        <v>33.501002893518518</v>
+        <v>33.500952893518516</v>
       </c>
       <c r="C57" s="3">
-        <v>33.501002893518518</v>
+        <v>33.500952893518516</v>
       </c>
       <c r="D57">
         <v>9</v>
       </c>
       <c r="E57">
-        <v>456</v>
+        <v>558</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2594,30 +2627,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B58" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500955324074077</v>
       </c>
       <c r="C58" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500955324074077</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>295</v>
+        <v>417</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2626,30 +2659,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B59" s="3">
-        <v>33.501120023148147</v>
+        <v>33.500970138888889</v>
       </c>
       <c r="C59" s="3">
-        <v>33.501120023148147</v>
+        <v>33.500970138888889</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2658,30 +2691,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B60" s="3">
-        <v>33.501287268518517</v>
+        <v>33.500985416666666</v>
       </c>
       <c r="C60" s="3">
-        <v>33.501287268518517</v>
+        <v>33.500985416666666</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>36</v>
+        <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2690,30 +2723,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="2">
-        <v>33.500489004629628</v>
-      </c>
-      <c r="C61" s="2">
-        <v>36557.500489004633</v>
+        <v>85</v>
+      </c>
+      <c r="B61" s="3">
+        <v>33.500987152777775</v>
+      </c>
+      <c r="C61" s="3">
+        <v>33.500987152777775</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2722,30 +2755,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="2">
-        <v>33.500535648148151</v>
-      </c>
-      <c r="C62" s="2">
-        <v>36557.500535648149</v>
+        <v>85</v>
+      </c>
+      <c r="B62" s="3">
+        <v>33.501002893518518</v>
+      </c>
+      <c r="C62" s="3">
+        <v>33.501002893518518</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2754,30 +2787,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="2">
-        <v>33.50054039351852</v>
-      </c>
-      <c r="C63" s="2">
-        <v>36557.500540393521</v>
+        <v>85</v>
+      </c>
+      <c r="B63" s="3">
+        <v>33.501091319444441</v>
+      </c>
+      <c r="C63" s="3">
+        <v>33.501091319444441</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>401</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2786,30 +2819,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="2">
-        <v>33.500540624999999</v>
-      </c>
-      <c r="C64" s="2">
-        <v>36557.500540624998</v>
+        <v>85</v>
+      </c>
+      <c r="B64" s="3">
+        <v>33.501120023148147</v>
+      </c>
+      <c r="C64" s="3">
+        <v>33.501120023148147</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2818,30 +2851,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="2">
-        <v>33.500549537037038</v>
-      </c>
-      <c r="C65" s="2">
-        <v>36557.500549537035</v>
+        <v>85</v>
+      </c>
+      <c r="B65" s="3">
+        <v>33.501287268518517</v>
+      </c>
+      <c r="C65" s="3">
+        <v>33.501287268518517</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>369</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2850,30 +2883,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2">
-        <v>33.500566203703706</v>
+        <v>33.500489004629628</v>
       </c>
       <c r="C66" s="2">
-        <v>36557.5005662037</v>
+        <v>36557.500489004633</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>313</v>
+        <v>448</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2882,30 +2915,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2">
-        <v>33.500575115740737</v>
+        <v>33.500503125000002</v>
       </c>
       <c r="C67" s="2">
-        <v>36557.500575115744</v>
+        <v>36557.500503124997</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2914,30 +2947,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2">
-        <v>33.500616666666666</v>
+        <v>33.500506712962959</v>
       </c>
       <c r="C68" s="2">
-        <v>36557.500616666664</v>
+        <v>36557.50050671296</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>162</v>
+        <v>379</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2946,30 +2979,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2">
-        <v>33.500629398148149</v>
+        <v>33.500535648148151</v>
       </c>
       <c r="C69" s="2">
-        <v>36557.50062939815</v>
+        <v>36557.500535648149</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>129</v>
+        <v>418</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -2978,30 +3011,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2">
-        <v>33.500659143518519</v>
+        <v>33.50054039351852</v>
       </c>
       <c r="C70" s="2">
-        <v>36557.500659143516</v>
+        <v>36557.500540393521</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3010,30 +3043,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="3">
-        <v>33.501103125</v>
-      </c>
-      <c r="C71" s="3">
-        <v>33.501103125</v>
+        <v>88</v>
+      </c>
+      <c r="B71" s="2">
+        <v>33.500540624999999</v>
+      </c>
+      <c r="C71" s="2">
+        <v>36557.500540624998</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3042,31 +3075,31 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="2">
+        <v>33.500549537037038</v>
+      </c>
+      <c r="C72" s="2">
+        <v>36557.500549537035</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>369</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="3">
-        <v>33.501117245370374</v>
-      </c>
-      <c r="C72" s="3">
-        <v>33.501117245370374</v>
-      </c>
-      <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72">
-        <v>359</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
       <c r="H72" t="s">
         <v>13</v>
       </c>
@@ -3074,30 +3107,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="3">
-        <v>33.501156250000001</v>
-      </c>
-      <c r="C73" s="3">
-        <v>33.501156250000001</v>
+        <v>88</v>
+      </c>
+      <c r="B73" s="2">
+        <v>33.500566203703706</v>
+      </c>
+      <c r="C73" s="2">
+        <v>36557.5005662037</v>
       </c>
       <c r="D73">
         <v>9</v>
       </c>
       <c r="E73">
-        <v>455</v>
+        <v>313</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3106,30 +3139,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="3">
-        <v>33.501187847222219</v>
-      </c>
-      <c r="C74" s="3">
-        <v>33.501187847222219</v>
+        <v>88</v>
+      </c>
+      <c r="B74" s="2">
+        <v>33.500575115740737</v>
+      </c>
+      <c r="C74" s="2">
+        <v>36557.500575115744</v>
       </c>
       <c r="D74">
         <v>9</v>
       </c>
       <c r="E74">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3138,30 +3171,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="3">
-        <v>33.501195601851855</v>
-      </c>
-      <c r="C75" s="3">
-        <v>33.501195601851855</v>
+        <v>88</v>
+      </c>
+      <c r="B75" s="2">
+        <v>33.500616666666666</v>
+      </c>
+      <c r="C75" s="2">
+        <v>36557.500616666664</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3170,30 +3203,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="3">
-        <v>33.501196990740738</v>
-      </c>
-      <c r="C76" s="3">
-        <v>33.501196990740738</v>
+        <v>88</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.500629398148149</v>
+      </c>
+      <c r="C76" s="2">
+        <v>36557.50062939815</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>389</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3202,30 +3235,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="3">
-        <v>33.5012099537037</v>
-      </c>
-      <c r="C77" s="3">
-        <v>33.5012099537037</v>
+        <v>88</v>
+      </c>
+      <c r="B77" s="2">
+        <v>33.500659143518519</v>
+      </c>
+      <c r="C77" s="2">
+        <v>36557.500659143516</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>369</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3234,30 +3267,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="2">
-        <v>33.500426851851849</v>
-      </c>
-      <c r="C78" s="2">
-        <v>36557.500426851853</v>
+        <v>89</v>
+      </c>
+      <c r="B78" s="3">
+        <v>33.501103125</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33.501103125</v>
       </c>
       <c r="D78">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3266,30 +3299,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="2">
-        <v>33.50047546296296</v>
-      </c>
-      <c r="C79" s="2">
-        <v>36557.500475462963</v>
+        <v>89</v>
+      </c>
+      <c r="B79" s="3">
+        <v>33.501106365740739</v>
+      </c>
+      <c r="C79" s="3">
+        <v>33.501106365740739</v>
       </c>
       <c r="D79">
         <v>10</v>
       </c>
       <c r="E79">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3298,30 +3331,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="2">
-        <v>33.500487615740738</v>
-      </c>
-      <c r="C80" s="2">
-        <v>36557.50048761574</v>
+        <v>89</v>
+      </c>
+      <c r="B80" s="3">
+        <v>33.501117245370374</v>
+      </c>
+      <c r="C80" s="3">
+        <v>33.501117245370374</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3330,30 +3363,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="2">
-        <v>33.500490393518518</v>
-      </c>
-      <c r="C81" s="2">
-        <v>36557.500490393519</v>
+        <v>89</v>
+      </c>
+      <c r="B81" s="3">
+        <v>33.501149537037037</v>
+      </c>
+      <c r="C81" s="3">
+        <v>33.501149537037037</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3362,31 +3395,31 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2">
-        <v>33.500491319444443</v>
-      </c>
-      <c r="C82" s="2">
-        <v>36557.500491319443</v>
+        <v>89</v>
+      </c>
+      <c r="B82" s="3">
+        <v>33.501156250000001</v>
+      </c>
+      <c r="C82" s="3">
+        <v>33.501156250000001</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
         <v>28</v>
       </c>
-      <c r="G82" t="s">
-        <v>67</v>
-      </c>
       <c r="H82" t="s">
         <v>13</v>
       </c>
@@ -3394,30 +3427,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
-        <v>33.50054479166667</v>
-      </c>
-      <c r="C83" s="2">
-        <v>36557.50054479167</v>
+        <v>89</v>
+      </c>
+      <c r="B83" s="3">
+        <v>33.501187847222219</v>
+      </c>
+      <c r="C83" s="3">
+        <v>33.501187847222219</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3426,30 +3459,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" s="2">
-        <v>33.500545023148149</v>
-      </c>
-      <c r="C84" s="2">
-        <v>36557.500545023147</v>
+        <v>89</v>
+      </c>
+      <c r="B84" s="3">
+        <v>33.501195601851855</v>
+      </c>
+      <c r="C84" s="3">
+        <v>33.501195601851855</v>
       </c>
       <c r="D84">
         <v>9</v>
       </c>
       <c r="E84">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3458,62 +3491,62 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="3">
+        <v>33.501196990740738</v>
+      </c>
+      <c r="C85" s="3">
+        <v>33.501196990740738</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>389</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
         <v>81</v>
-      </c>
-      <c r="B85" s="2">
-        <v>33.500569212962965</v>
-      </c>
-      <c r="C85" s="2">
-        <v>36557.500569212963</v>
-      </c>
-      <c r="D85">
-        <v>8</v>
-      </c>
-      <c r="E85">
-        <v>71</v>
-      </c>
-      <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="2">
-        <v>33.500570138888889</v>
-      </c>
-      <c r="C86" s="2">
-        <v>36557.500570138887</v>
+        <v>89</v>
+      </c>
+      <c r="B86" s="3">
+        <v>33.5012099537037</v>
+      </c>
+      <c r="C86" s="3">
+        <v>33.5012099537037</v>
       </c>
       <c r="D86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3522,30 +3555,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>33.500609490740743</v>
+        <v>33.500417361111111</v>
       </c>
       <c r="C87" s="2">
-        <v>36557.500609490744</v>
+        <v>36557.500417361109</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3554,30 +3587,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="3">
-        <v>33.501071990740741</v>
-      </c>
-      <c r="C88" s="3">
-        <v>33.501071990740741</v>
+        <v>91</v>
+      </c>
+      <c r="B88" s="2">
+        <v>33.500424305555555</v>
+      </c>
+      <c r="C88" s="2">
+        <v>36557.500424305559</v>
       </c>
       <c r="D88">
         <v>10</v>
       </c>
       <c r="E88">
-        <v>208</v>
+        <v>403</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3586,30 +3619,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="3">
-        <v>33.501254976851854</v>
-      </c>
-      <c r="C89" s="3">
-        <v>33.501254976851854</v>
+        <v>91</v>
+      </c>
+      <c r="B89" s="2">
+        <v>33.500426851851849</v>
+      </c>
+      <c r="C89" s="2">
+        <v>36557.500426851853</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89">
-        <v>100</v>
+        <v>392</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3618,30 +3651,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="3">
-        <v>33.501453009259258</v>
-      </c>
-      <c r="C90" s="3">
-        <v>33.501453009259258</v>
+        <v>91</v>
+      </c>
+      <c r="B90" s="2">
+        <v>33.50047546296296</v>
+      </c>
+      <c r="C90" s="2">
+        <v>36557.500475462963</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3650,30 +3683,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="3">
-        <v>33.500929861111111</v>
-      </c>
-      <c r="C91" s="3">
-        <v>33.500929861111111</v>
+        <v>91</v>
+      </c>
+      <c r="B91" s="2">
+        <v>33.500487615740738</v>
+      </c>
+      <c r="C91" s="2">
+        <v>36557.50048761574</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>456</v>
+        <v>292</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3682,30 +3715,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="3">
-        <v>33.501000115740737</v>
-      </c>
-      <c r="C92" s="3">
-        <v>33.501000115740737</v>
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>33.500490393518518</v>
+      </c>
+      <c r="C92" s="2">
+        <v>36557.500490393519</v>
       </c>
       <c r="D92">
         <v>9</v>
       </c>
       <c r="E92">
-        <v>449</v>
+        <v>283</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3714,30 +3747,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="3">
-        <v>33.501011689814817</v>
-      </c>
-      <c r="C93" s="3">
-        <v>33.501011689814817</v>
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>33.500491319444443</v>
+      </c>
+      <c r="C93" s="2">
+        <v>36557.500491319443</v>
       </c>
       <c r="D93">
         <v>9</v>
       </c>
       <c r="E93">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3746,30 +3779,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="3">
-        <v>33.501023842592595</v>
-      </c>
-      <c r="C94" s="3">
-        <v>33.501023842592595</v>
+        <v>91</v>
+      </c>
+      <c r="B94" s="2">
+        <v>33.50054479166667</v>
+      </c>
+      <c r="C94" s="2">
+        <v>36557.50054479167</v>
       </c>
       <c r="D94">
         <v>9</v>
       </c>
       <c r="E94">
-        <v>401</v>
+        <v>123</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3778,30 +3811,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="3">
-        <v>33.50104560185185</v>
-      </c>
-      <c r="C95" s="3">
-        <v>33.50104560185185</v>
+        <v>91</v>
+      </c>
+      <c r="B95" s="2">
+        <v>33.500545023148149</v>
+      </c>
+      <c r="C95" s="2">
+        <v>36557.500545023147</v>
       </c>
       <c r="D95">
         <v>9</v>
       </c>
       <c r="E95">
-        <v>358</v>
+        <v>123</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3810,30 +3843,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="3">
-        <v>33.501158449074076</v>
-      </c>
-      <c r="C96" s="3">
-        <v>33.501158449074076</v>
+        <v>91</v>
+      </c>
+      <c r="B96" s="2">
+        <v>33.500569212962965</v>
+      </c>
+      <c r="C96" s="2">
+        <v>36557.500569212963</v>
       </c>
       <c r="D96">
         <v>8</v>
       </c>
       <c r="E96">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3842,30 +3875,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="3">
-        <v>33.501176504629626</v>
-      </c>
-      <c r="C97" s="3">
-        <v>33.501176504629626</v>
+        <v>91</v>
+      </c>
+      <c r="B97" s="2">
+        <v>33.500570138888889</v>
+      </c>
+      <c r="C97" s="2">
+        <v>36557.500570138887</v>
       </c>
       <c r="D97">
         <v>8</v>
       </c>
       <c r="E97">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3874,30 +3907,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2">
-        <v>33.500416782407406</v>
+        <v>33.500609490740743</v>
       </c>
       <c r="C98" s="2">
-        <v>36557.500416782408</v>
+        <v>36557.500609490744</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>648</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3906,30 +3939,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="3">
+        <v>33.501071990740741</v>
+      </c>
+      <c r="C99" s="3">
+        <v>33.501071990740741</v>
+      </c>
+      <c r="D99">
         <v>10</v>
       </c>
-      <c r="B99" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" s="2">
-        <v>36557.500421180557</v>
-      </c>
-      <c r="D99">
-        <v>9</v>
-      </c>
       <c r="E99">
-        <v>630</v>
+        <v>208</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3938,30 +3971,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="2">
-        <v>33.50042337962963</v>
-      </c>
-      <c r="C100" s="2">
-        <v>36557.500423379628</v>
+        <v>92</v>
+      </c>
+      <c r="B100" s="3">
+        <v>33.501254976851854</v>
+      </c>
+      <c r="C100" s="3">
+        <v>33.501254976851854</v>
       </c>
       <c r="D100">
         <v>9</v>
       </c>
       <c r="E100">
-        <v>620</v>
+        <v>100</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3970,30 +4003,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="2">
-        <v>33.50042511574074</v>
-      </c>
-      <c r="C101" s="2">
-        <v>36557.500425115744</v>
+        <v>92</v>
+      </c>
+      <c r="B101" s="3">
+        <v>33.501453009259258</v>
+      </c>
+      <c r="C101" s="3">
+        <v>33.501453009259258</v>
       </c>
       <c r="D101">
         <v>9</v>
       </c>
       <c r="E101">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -4002,30 +4035,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33.500929861111111</v>
+      </c>
+      <c r="C102" s="3">
+        <v>33.500929861111111</v>
+      </c>
+      <c r="D102">
         <v>10</v>
       </c>
-      <c r="B102" s="2">
-        <v>33.500430439814814</v>
-      </c>
-      <c r="C102" s="2">
-        <v>36557.500430439817</v>
-      </c>
-      <c r="D102">
-        <v>9</v>
-      </c>
       <c r="E102">
-        <v>590</v>
+        <v>456</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4034,30 +4067,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.50093159722222</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.50093159722222</v>
+      </c>
+      <c r="D103">
         <v>10</v>
       </c>
-      <c r="B103" s="2">
-        <v>33.500436574074072</v>
-      </c>
-      <c r="C103" s="2">
-        <v>36557.500436574075</v>
-      </c>
-      <c r="D103">
-        <v>9</v>
-      </c>
       <c r="E103">
-        <v>565</v>
+        <v>452</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4066,30 +4099,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="3">
+        <v>33.500948379629627</v>
+      </c>
+      <c r="C104" s="3">
+        <v>33.500948379629627</v>
+      </c>
+      <c r="D104">
         <v>10</v>
       </c>
-      <c r="B104" s="2">
-        <v>33.500480324074076</v>
-      </c>
-      <c r="C104" s="2">
-        <v>36557.500480324074</v>
-      </c>
-      <c r="D104">
-        <v>8</v>
-      </c>
       <c r="E104">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4098,30 +4131,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="2">
-        <v>33.500500578703701</v>
-      </c>
-      <c r="C105" s="2">
-        <v>36557.500500578702</v>
+        <v>93</v>
+      </c>
+      <c r="B105" s="3">
+        <v>33.501000115740737</v>
+      </c>
+      <c r="C105" s="3">
+        <v>33.501000115740737</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>314</v>
+        <v>449</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4130,30 +4163,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="2">
-        <v>33.500515509259259</v>
-      </c>
-      <c r="C106" s="2">
-        <v>36557.500515509259</v>
+        <v>93</v>
+      </c>
+      <c r="B106" s="3">
+        <v>33.501011689814817</v>
+      </c>
+      <c r="C106" s="3">
+        <v>33.501011689814817</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E106">
-        <v>261</v>
+        <v>425</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4162,30 +4195,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="2">
-        <v>33.500521759259257</v>
-      </c>
-      <c r="C107" s="2">
-        <v>36557.500521759262</v>
+        <v>93</v>
+      </c>
+      <c r="B107" s="3">
+        <v>33.501023842592595</v>
+      </c>
+      <c r="C107" s="3">
+        <v>33.501023842592595</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4194,30 +4227,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B108" s="2">
-        <v>33.500555902777776</v>
-      </c>
-      <c r="C108" s="2">
-        <v>36557.500555902778</v>
+        <v>93</v>
+      </c>
+      <c r="B108" s="3">
+        <v>33.50104560185185</v>
+      </c>
+      <c r="C108" s="3">
+        <v>33.50104560185185</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4226,30 +4259,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="2">
-        <v>33.500588657407405</v>
-      </c>
-      <c r="C109" s="2">
-        <v>36557.500588657407</v>
+        <v>93</v>
+      </c>
+      <c r="B109" s="3">
+        <v>33.501158449074076</v>
+      </c>
+      <c r="C109" s="3">
+        <v>33.501158449074076</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4258,30 +4291,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B110" s="3">
-        <v>33.500947800925928</v>
+        <v>33.501176504629626</v>
       </c>
       <c r="C110" s="3">
-        <v>33.500947800925928</v>
+        <v>33.501176504629626</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>554</v>
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4290,30 +4323,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>52</v>
-      </c>
-      <c r="B111" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="B111" s="3">
+        <v>33.502048263888888</v>
       </c>
       <c r="C111" s="3">
-        <v>33.500960416666665</v>
+        <v>33.502048263888888</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111">
-        <v>528</v>
+        <v>405</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4322,30 +4355,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B112" s="3">
-        <v>33.500991666666664</v>
+        <v>33.502126620370369</v>
       </c>
       <c r="C112" s="3">
-        <v>33.500991666666664</v>
+        <v>33.502126620370369</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>464</v>
+        <v>331</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4354,30 +4387,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>52</v>
-      </c>
-      <c r="B113" s="3">
-        <v>33.501017592592589</v>
-      </c>
-      <c r="C113" s="3">
-        <v>33.501017592592589</v>
+        <v>10</v>
+      </c>
+      <c r="B113" s="2">
+        <v>33.500416782407406</v>
+      </c>
+      <c r="C113" s="2">
+        <v>36557.500416782408</v>
       </c>
       <c r="D113">
         <v>9</v>
       </c>
       <c r="E113">
-        <v>413</v>
+        <v>648</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4386,30 +4419,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>52</v>
-      </c>
-      <c r="B114" s="3">
-        <v>33.501032870370373</v>
-      </c>
-      <c r="C114" s="3">
-        <v>33.501032870370373</v>
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="2">
+        <v>36557.500421180557</v>
       </c>
       <c r="D114">
         <v>9</v>
       </c>
       <c r="E114">
-        <v>384</v>
+        <v>630</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4418,30 +4451,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>52</v>
-      </c>
-      <c r="B115" s="3">
-        <v>33.50107060185185</v>
-      </c>
-      <c r="C115" s="3">
-        <v>33.50107060185185</v>
+        <v>10</v>
+      </c>
+      <c r="B115" s="2">
+        <v>33.50042337962963</v>
+      </c>
+      <c r="C115" s="2">
+        <v>36557.500423379628</v>
       </c>
       <c r="D115">
         <v>9</v>
       </c>
       <c r="E115">
-        <v>316</v>
+        <v>620</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4450,30 +4483,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" s="3">
-        <v>33.501098726851851</v>
-      </c>
-      <c r="C116" s="3">
-        <v>33.501098726851851</v>
+        <v>10</v>
+      </c>
+      <c r="B116" s="2">
+        <v>33.50042511574074</v>
+      </c>
+      <c r="C116" s="2">
+        <v>36557.500425115744</v>
       </c>
       <c r="D116">
         <v>9</v>
       </c>
       <c r="E116">
-        <v>268</v>
+        <v>613</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4482,30 +4515,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117" s="3">
-        <v>33.501188425925925</v>
-      </c>
-      <c r="C117" s="3">
-        <v>33.501188425925925</v>
+        <v>10</v>
+      </c>
+      <c r="B117" s="2">
+        <v>33.500430439814814</v>
+      </c>
+      <c r="C117" s="2">
+        <v>36557.500430439817</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>134</v>
+        <v>590</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4514,62 +4547,62 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="3">
-        <v>33.501251736111108</v>
-      </c>
-      <c r="C118" s="3">
-        <v>33.501251736111108</v>
+        <v>10</v>
+      </c>
+      <c r="B118" s="2">
+        <v>33.500436574074072</v>
+      </c>
+      <c r="C118" s="2">
+        <v>36557.500436574075</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>60</v>
+        <v>565</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
+        <v>105</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
         <v>106</v>
-      </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>64</v>
-      </c>
-      <c r="B119" s="3">
-        <v>33.502219328703703</v>
-      </c>
-      <c r="C119" s="3">
-        <v>33.502219328703703</v>
+        <v>10</v>
+      </c>
+      <c r="B119" s="2">
+        <v>33.500480324074076</v>
+      </c>
+      <c r="C119" s="2">
+        <v>36557.500480324074</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4578,30 +4611,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120" s="3">
-        <v>33.502642824074073</v>
-      </c>
-      <c r="C120" s="3">
-        <v>33.502642824074073</v>
+        <v>10</v>
+      </c>
+      <c r="B120" s="2">
+        <v>33.500500578703701</v>
+      </c>
+      <c r="C120" s="2">
+        <v>36557.500500578702</v>
       </c>
       <c r="D120">
         <v>8</v>
       </c>
       <c r="E120">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4610,30 +4643,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B121" s="2">
-        <v>33.500486458333334</v>
+        <v>33.500515509259259</v>
       </c>
       <c r="C121" s="2">
-        <v>36557.500486458332</v>
+        <v>36557.500515509259</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>638</v>
+        <v>261</v>
       </c>
       <c r="F121" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4642,30 +4675,30 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B122" s="2">
-        <v>33.500497337962962</v>
+        <v>33.500521759259257</v>
       </c>
       <c r="C122" s="2">
-        <v>36557.500497337962</v>
+        <v>36557.500521759262</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>594</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4674,30 +4707,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B123" s="2">
-        <v>33.500509375</v>
+        <v>33.500555902777776</v>
       </c>
       <c r="C123" s="2">
-        <v>36557.500509375001</v>
+        <v>36557.500555902778</v>
       </c>
       <c r="D123">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>546</v>
+        <v>129</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4706,30 +4739,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B124" s="2">
-        <v>33.500511574074075</v>
+        <v>33.500588657407405</v>
       </c>
       <c r="C124" s="2">
-        <v>36557.500511574071</v>
+        <v>36557.500588657407</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>537</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4738,30 +4771,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" s="2">
-        <v>33.500512962962965</v>
-      </c>
-      <c r="C125" s="2">
-        <v>36557.500512962964</v>
+        <v>54</v>
+      </c>
+      <c r="B125" s="3">
+        <v>33.500947800925928</v>
+      </c>
+      <c r="C125" s="3">
+        <v>33.500947800925928</v>
       </c>
       <c r="D125">
         <v>9</v>
       </c>
       <c r="E125">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="F125" t="s">
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4770,30 +4803,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" s="2">
-        <v>33.500519444444443</v>
-      </c>
-      <c r="C126" s="2">
-        <v>36557.500519444446</v>
+        <v>54</v>
+      </c>
+      <c r="B126" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="3">
+        <v>33.500960416666665</v>
       </c>
       <c r="D126">
         <v>9</v>
       </c>
       <c r="E126">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4802,30 +4835,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="2">
-        <v>33.500553472222222</v>
-      </c>
-      <c r="C127" s="2">
-        <v>36557.500553472222</v>
+        <v>54</v>
+      </c>
+      <c r="B127" s="3">
+        <v>33.500991666666664</v>
+      </c>
+      <c r="C127" s="3">
+        <v>33.500991666666664</v>
       </c>
       <c r="D127">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4834,30 +4867,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="2">
-        <v>33.500576273148148</v>
-      </c>
-      <c r="C128" s="2">
-        <v>36557.500576273145</v>
+        <v>54</v>
+      </c>
+      <c r="B128" s="3">
+        <v>33.501017592592589</v>
+      </c>
+      <c r="C128" s="3">
+        <v>33.501017592592589</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>306</v>
+        <v>413</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4866,30 +4899,30 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>65</v>
-      </c>
-      <c r="B129" s="2">
-        <v>33.500619560185186</v>
-      </c>
-      <c r="C129" s="2">
-        <v>36557.500619560182</v>
+        <v>54</v>
+      </c>
+      <c r="B129" s="3">
+        <v>33.501032870370373</v>
+      </c>
+      <c r="C129" s="3">
+        <v>33.501032870370373</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -4898,30 +4931,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>65</v>
-      </c>
-      <c r="B130" s="2">
-        <v>33.500633217592593</v>
-      </c>
-      <c r="C130" s="2">
-        <v>36557.500633217591</v>
+        <v>54</v>
+      </c>
+      <c r="B130" s="3">
+        <v>33.50107060185185</v>
+      </c>
+      <c r="C130" s="3">
+        <v>33.50107060185185</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -4930,30 +4963,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B131" s="3">
-        <v>33.501099768518522</v>
+        <v>33.501098726851851</v>
       </c>
       <c r="C131" s="3">
-        <v>33.501099768518522</v>
+        <v>33.501098726851851</v>
       </c>
       <c r="D131">
         <v>9</v>
       </c>
       <c r="E131">
-        <v>558</v>
+        <v>268</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -4962,30 +4995,30 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B132" s="3">
-        <v>33.501138310185183</v>
+        <v>33.501188425925925</v>
       </c>
       <c r="C132" s="3">
-        <v>33.501138310185183</v>
+        <v>33.501188425925925</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>490</v>
+        <v>134</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -4994,30 +5027,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B133" s="3">
-        <v>33.501144097222223</v>
+        <v>33.501251736111108</v>
       </c>
       <c r="C133" s="3">
-        <v>33.501144097222223</v>
+        <v>33.501251736111108</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5026,30 +5059,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B134" s="3">
-        <v>33.501145023148148</v>
+        <v>33.502219328703703</v>
       </c>
       <c r="C134" s="3">
-        <v>33.501145023148148</v>
+        <v>33.502219328703703</v>
       </c>
       <c r="D134">
         <v>9</v>
       </c>
       <c r="E134">
-        <v>478</v>
+        <v>376</v>
       </c>
       <c r="F134" t="s">
         <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5058,30 +5091,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B135" s="3">
-        <v>33.50115509259259</v>
+        <v>33.502642824074073</v>
       </c>
       <c r="C135" s="3">
-        <v>33.50115509259259</v>
+        <v>33.502642824074073</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5090,30 +5123,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>77</v>
-      </c>
-      <c r="B136" s="3">
-        <v>33.501206365740742</v>
-      </c>
-      <c r="C136" s="3">
-        <v>33.501206365740742</v>
+        <v>72</v>
+      </c>
+      <c r="B136" s="2">
+        <v>33.500486458333334</v>
+      </c>
+      <c r="C136" s="2">
+        <v>36557.500486458332</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>376</v>
+        <v>638</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="G136" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5122,30 +5155,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>77</v>
-      </c>
-      <c r="B137" s="3">
-        <v>33.501286574074072</v>
-      </c>
-      <c r="C137" s="3">
-        <v>33.501286574074072</v>
+        <v>72</v>
+      </c>
+      <c r="B137" s="2">
+        <v>33.500497337962962</v>
+      </c>
+      <c r="C137" s="2">
+        <v>36557.500497337962</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>256</v>
+        <v>594</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="G137" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5154,30 +5187,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>77</v>
-      </c>
-      <c r="B138" s="3">
-        <v>33.501290740740743</v>
-      </c>
-      <c r="C138" s="3">
-        <v>33.501290740740743</v>
+        <v>72</v>
+      </c>
+      <c r="B138" s="2">
+        <v>33.500509375</v>
+      </c>
+      <c r="C138" s="2">
+        <v>36557.500509375001</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138">
-        <v>250</v>
+        <v>546</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5186,30 +5219,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B139" s="2">
-        <v>33.500586574074077</v>
+        <v>33.500511574074075</v>
       </c>
       <c r="C139" s="2">
-        <v>36557.500586574075</v>
+        <v>36557.500511574071</v>
       </c>
       <c r="D139">
         <v>9</v>
       </c>
       <c r="E139">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5218,30 +5251,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B140" s="2">
-        <v>33.500603819444443</v>
+        <v>33.500512962962965</v>
       </c>
       <c r="C140" s="2">
-        <v>36557.500603819448</v>
+        <v>36557.500512962964</v>
       </c>
       <c r="D140">
         <v>9</v>
       </c>
       <c r="E140">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="F140" t="s">
         <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5250,30 +5283,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B141" s="2">
-        <v>33.50062060185185</v>
+        <v>33.500519444444443</v>
       </c>
       <c r="C141" s="2">
-        <v>36557.500620601852</v>
+        <v>36557.500519444446</v>
       </c>
       <c r="D141">
         <v>9</v>
       </c>
       <c r="E141">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5282,30 +5315,30 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B142" s="2">
-        <v>33.500644444444447</v>
+        <v>33.500553472222222</v>
       </c>
       <c r="C142" s="2">
-        <v>36557.500644444444</v>
+        <v>36557.500553472222</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5314,30 +5347,30 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B143" s="2">
-        <v>33.50065428240741</v>
+        <v>33.500576273148148</v>
       </c>
       <c r="C143" s="2">
-        <v>36557.500654282405</v>
+        <v>36557.500576273145</v>
       </c>
       <c r="D143">
         <v>8</v>
       </c>
       <c r="E143">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5346,30 +5379,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B144" s="2">
-        <v>33.500677430555555</v>
+        <v>33.500619560185186</v>
       </c>
       <c r="C144" s="2">
-        <v>36557.500677430558</v>
+        <v>36557.500619560182</v>
       </c>
       <c r="D144">
         <v>8</v>
       </c>
       <c r="E144">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5378,30 +5411,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B145" s="2">
-        <v>33.500684606481478</v>
+        <v>33.500633217592593</v>
       </c>
       <c r="C145" s="2">
-        <v>36557.500684606479</v>
+        <v>36557.500633217591</v>
       </c>
       <c r="D145">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5410,30 +5443,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>79</v>
-      </c>
-      <c r="B146" s="2">
-        <v>33.50068553240741</v>
-      </c>
-      <c r="C146" s="2">
-        <v>36557.50068553241</v>
+        <v>85</v>
+      </c>
+      <c r="B146" s="3">
+        <v>33.501099768518522</v>
+      </c>
+      <c r="C146" s="3">
+        <v>33.501099768518522</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E146">
-        <v>235</v>
+        <v>558</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5442,94 +5475,94 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B147" s="3">
-        <v>33.500745254629628</v>
+        <v>33.501138310185183</v>
       </c>
       <c r="C147" s="3">
-        <v>33.500745254629628</v>
+        <v>33.501138310185183</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E147">
+        <v>490</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
         <v>98</v>
-      </c>
-      <c r="F147" t="s">
-        <v>35</v>
-      </c>
-      <c r="G147" t="s">
-        <v>102</v>
-      </c>
-      <c r="H147" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B148" s="3">
-        <v>33.500821296296294</v>
+        <v>33.501144097222223</v>
       </c>
       <c r="C148" s="3">
-        <v>33.500821296296294</v>
+        <v>33.501144097222223</v>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
+        <v>105</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
         <v>106</v>
-      </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B149" s="3">
-        <v>33.500891203703702</v>
+        <v>33.501145023148148</v>
       </c>
       <c r="C149" s="3">
-        <v>33.500891203703702</v>
+        <v>33.501145023148148</v>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>478</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5538,30 +5571,30 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B150" s="3">
-        <v>33.50133275462963</v>
+        <v>33.50115509259259</v>
       </c>
       <c r="C150" s="3">
-        <v>33.50133275462963</v>
+        <v>33.50115509259259</v>
       </c>
       <c r="D150">
         <v>9</v>
       </c>
       <c r="E150">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5570,30 +5603,30 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B151" s="3">
-        <v>33.501349074074071</v>
+        <v>33.501206365740742</v>
       </c>
       <c r="C151" s="3">
-        <v>33.501349074074071</v>
+        <v>33.501206365740742</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5602,30 +5635,30 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B152" s="3">
-        <v>33.501372337962962</v>
+        <v>33.501286574074072</v>
       </c>
       <c r="C152" s="3">
-        <v>33.501372337962962</v>
+        <v>33.501286574074072</v>
       </c>
       <c r="D152">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5639,25 +5672,25 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B153" s="3">
-        <v>33.501372685185189</v>
+        <v>33.501290740740743</v>
       </c>
       <c r="C153" s="3">
-        <v>33.501372685185189</v>
+        <v>33.501290740740743</v>
       </c>
       <c r="D153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="F153" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -5666,30 +5699,30 @@
         <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B154" s="2">
-        <v>33.500475925925926</v>
+        <v>33.500586574074077</v>
       </c>
       <c r="C154" s="2">
-        <v>36557.500475925925</v>
+        <v>36557.500586574075</v>
       </c>
       <c r="D154">
         <v>9</v>
       </c>
       <c r="E154">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5698,30 +5731,30 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B155" s="2">
-        <v>33.500538425925924</v>
+        <v>33.500603819444443</v>
       </c>
       <c r="C155" s="2">
-        <v>36557.500538425928</v>
+        <v>36557.500603819448</v>
       </c>
       <c r="D155">
         <v>9</v>
       </c>
       <c r="E155">
-        <v>346</v>
+        <v>474</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5730,30 +5763,30 @@
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B156" s="2">
-        <v>33.500578240740744</v>
+        <v>33.50062060185185</v>
       </c>
       <c r="C156" s="2">
-        <v>36557.500578240739</v>
+        <v>36557.500620601852</v>
       </c>
       <c r="D156">
         <v>9</v>
       </c>
       <c r="E156">
-        <v>226</v>
+        <v>421</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -5762,30 +5795,30 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B157" s="2">
-        <v>33.500587152777776</v>
+        <v>33.500644444444447</v>
       </c>
       <c r="C157" s="2">
-        <v>36557.500587152776</v>
+        <v>36557.500644444444</v>
       </c>
       <c r="D157">
         <v>9</v>
       </c>
       <c r="E157">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -5794,30 +5827,30 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B158" s="2">
-        <v>33.500593402777781</v>
+        <v>33.50065428240741</v>
       </c>
       <c r="C158" s="2">
-        <v>36557.500593402779</v>
+        <v>36557.500654282405</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5826,30 +5859,30 @@
         <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B159" s="2">
-        <v>33.500622337962966</v>
+        <v>33.500677430555555</v>
       </c>
       <c r="C159" s="2">
-        <v>36557.500622337961</v>
+        <v>36557.500677430558</v>
       </c>
       <c r="D159">
         <v>8</v>
       </c>
       <c r="E159">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -5858,30 +5891,30 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B160" s="2">
-        <v>33.500682175925924</v>
+        <v>33.500684606481478</v>
       </c>
       <c r="C160" s="2">
-        <v>36557.500682175923</v>
+        <v>36557.500684606479</v>
       </c>
       <c r="D160">
         <v>8</v>
       </c>
       <c r="E160">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -5890,30 +5923,30 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B161" s="2">
-        <v>33.5006869212963</v>
+        <v>33.50068553240741</v>
       </c>
       <c r="C161" s="2">
-        <v>36557.500686921296</v>
+        <v>36557.50068553241</v>
       </c>
       <c r="D161">
         <v>8</v>
       </c>
       <c r="E161">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -5922,39 +5955,519 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B162" s="3">
+        <v>33.500745254629628</v>
+      </c>
+      <c r="C162" s="3">
+        <v>33.500745254629628</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162">
+        <v>98</v>
+      </c>
+      <c r="F162" t="s">
+        <v>37</v>
+      </c>
+      <c r="G162" t="s">
+        <v>113</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163" s="3">
+        <v>33.500821296296294</v>
+      </c>
+      <c r="C163" s="3">
+        <v>33.500821296296294</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>37</v>
+      </c>
+      <c r="G163" t="s">
+        <v>117</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>88</v>
+      </c>
+      <c r="B164" s="3">
+        <v>33.500891203703702</v>
+      </c>
+      <c r="C164" s="3">
+        <v>33.500891203703702</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>37</v>
+      </c>
+      <c r="G164" t="s">
+        <v>115</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>89</v>
+      </c>
+      <c r="B165" s="3">
+        <v>33.50133275462963</v>
+      </c>
+      <c r="C165" s="3">
+        <v>33.50133275462963</v>
+      </c>
+      <c r="D165">
+        <v>9</v>
+      </c>
+      <c r="E165">
+        <v>457</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>119</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>89</v>
+      </c>
+      <c r="B166" s="3">
+        <v>33.501349074074071</v>
+      </c>
+      <c r="C166" s="3">
+        <v>33.501349074074071</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>434</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
+        <v>103</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+      <c r="J166" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="3">
+        <v>33.501372337962962</v>
+      </c>
+      <c r="C167" s="3">
+        <v>33.501372337962962</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>401</v>
+      </c>
+      <c r="F167" t="s">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s">
+        <v>101</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" t="s">
+        <v>14</v>
+      </c>
+      <c r="J167" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>89</v>
+      </c>
+      <c r="B168" s="3">
+        <v>33.501372685185189</v>
+      </c>
+      <c r="C168" s="3">
+        <v>33.501372685185189</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>401</v>
+      </c>
+      <c r="F168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
+        <v>99</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+      <c r="J168" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" s="2">
+        <v>33.500475925925926</v>
+      </c>
+      <c r="C169" s="2">
+        <v>36557.500475925925</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>576</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" t="s">
+        <v>119</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>91</v>
+      </c>
+      <c r="B170" s="2">
+        <v>33.500538425925924</v>
+      </c>
+      <c r="C170" s="2">
+        <v>36557.500538425928</v>
+      </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>346</v>
+      </c>
+      <c r="F170" t="s">
+        <v>30</v>
+      </c>
+      <c r="G170" t="s">
+        <v>103</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>91</v>
+      </c>
+      <c r="B171" s="2">
+        <v>33.500578240740744</v>
+      </c>
+      <c r="C171" s="2">
+        <v>36557.500578240739</v>
+      </c>
+      <c r="D171">
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>226</v>
+      </c>
+      <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
+        <v>26</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+      <c r="J171" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>91</v>
+      </c>
+      <c r="B172" s="2">
+        <v>33.500587152777776</v>
+      </c>
+      <c r="C172" s="2">
+        <v>36557.500587152776</v>
+      </c>
+      <c r="D172">
+        <v>9</v>
+      </c>
+      <c r="E172">
+        <v>203</v>
+      </c>
+      <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
+        <v>105</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+      <c r="J172" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>91</v>
+      </c>
+      <c r="B173" s="2">
+        <v>33.500593402777781</v>
+      </c>
+      <c r="C173" s="2">
+        <v>36557.500593402779</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>187</v>
+      </c>
+      <c r="F173" t="s">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s">
+        <v>95</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>91</v>
+      </c>
+      <c r="B174" s="2">
+        <v>33.500622337962966</v>
+      </c>
+      <c r="C174" s="2">
+        <v>36557.500622337961</v>
+      </c>
+      <c r="D174">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <v>120</v>
+      </c>
+      <c r="F174" t="s">
+        <v>37</v>
+      </c>
+      <c r="G174" t="s">
+        <v>107</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>91</v>
+      </c>
+      <c r="B175" s="2">
+        <v>33.500682175925924</v>
+      </c>
+      <c r="C175" s="2">
+        <v>36557.500682175923</v>
+      </c>
+      <c r="D175">
+        <v>8</v>
+      </c>
+      <c r="E175">
+        <v>24</v>
+      </c>
+      <c r="F175" t="s">
+        <v>37</v>
+      </c>
+      <c r="G175" t="s">
+        <v>113</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" t="s">
+        <v>14</v>
+      </c>
+      <c r="J175" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>91</v>
+      </c>
+      <c r="B176" s="2">
+        <v>33.5006869212963</v>
+      </c>
+      <c r="C176" s="2">
+        <v>36557.500686921296</v>
+      </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
+      <c r="E176">
+        <v>19</v>
+      </c>
+      <c r="F176" t="s">
+        <v>37</v>
+      </c>
+      <c r="G176" t="s">
+        <v>109</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+      <c r="J176" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>92</v>
+      </c>
+      <c r="B177" s="3">
         <v>33.501350115740742</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C177" s="3">
         <v>33.501350115740742</v>
       </c>
-      <c r="D162">
-        <v>9</v>
-      </c>
-      <c r="E162">
+      <c r="D177">
+        <v>9</v>
+      </c>
+      <c r="E177">
         <v>210</v>
       </c>
-      <c r="F162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" t="s">
-        <v>108</v>
-      </c>
-      <c r="H162" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" t="s">
-        <v>122</v>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>119</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" t="s">
+        <v>14</v>
+      </c>
+      <c r="J177" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
